--- a/report/reliability/by-comb/UFAL A.C. Simões-Ensino Superior.xlsx
+++ b/report/reliability/by-comb/UFAL A.C. Simões-Ensino Superior.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="47">
   <si>
     <t>Reliability Analysis of all</t>
   </si>
@@ -71,22 +71,28 @@
     <t>med.r</t>
   </si>
   <si>
+    <t>Item3</t>
+  </si>
+  <si>
     <t>Item4</t>
   </si>
   <si>
     <t>Item5</t>
   </si>
   <si>
-    <t>Item3</t>
-  </si>
-  <si>
     <t>Item6</t>
   </si>
   <si>
-    <t>Item15</t>
+    <t>Item12</t>
   </si>
   <si>
     <t>Item13</t>
+  </si>
+  <si>
+    <t>Item14</t>
+  </si>
+  <si>
+    <t>Item15</t>
   </si>
   <si>
     <t>Item17</t>
@@ -95,31 +101,13 @@
     <t>Item18</t>
   </si>
   <si>
-    <t>Item14</t>
-  </si>
-  <si>
-    <t>Item12</t>
-  </si>
-  <si>
     <t>Item19</t>
   </si>
   <si>
-    <t>Item2</t>
-  </si>
-  <si>
-    <t>Item11</t>
-  </si>
-  <si>
-    <t>Item16</t>
-  </si>
-  <si>
-    <t>Item9</t>
+    <t>Item21</t>
   </si>
   <si>
     <t>Item23</t>
-  </si>
-  <si>
-    <t>Item21</t>
   </si>
   <si>
     <t>Item statistics</t>
@@ -2475,31 +2463,31 @@
     </row>
     <row r="6">
       <c r="A6" t="n" s="31">
-        <v>0.9057597785247951</v>
+        <v>0.8785075641603551</v>
       </c>
       <c r="B6" t="n" s="32">
-        <v>0.9066349236594675</v>
+        <v>0.8797656192512794</v>
       </c>
       <c r="C6" t="n" s="33">
-        <v>0.9199400404794084</v>
+        <v>0.893461479003161</v>
       </c>
       <c r="D6" t="n" s="34">
-        <v>0.3635495780011442</v>
+        <v>0.3601445442115738</v>
       </c>
       <c r="E6" t="n" s="35">
-        <v>9.710642985527885</v>
+        <v>7.3170886211816</v>
       </c>
       <c r="F6" t="n" s="36">
-        <v>0.008847258662557879</v>
+        <v>0.011533959053214108</v>
       </c>
       <c r="G6" t="n" s="37">
-        <v>2.5679599499374217</v>
+        <v>2.4402618657937807</v>
       </c>
       <c r="H6" t="n" s="38">
-        <v>0.6735194864813451</v>
+        <v>0.6944051301052039</v>
       </c>
       <c r="I6" t="n" s="39">
-        <v>0.3596582259265272</v>
+        <v>0.3586731400582299</v>
       </c>
     </row>
     <row r="7">
@@ -2549,28 +2537,28 @@
         <v>18</v>
       </c>
       <c r="B11" t="n" s="58">
-        <v>0.8982154237544485</v>
+        <v>0.8718139823510883</v>
       </c>
       <c r="C11" t="n" s="59">
-        <v>0.8995797730418764</v>
+        <v>0.8732083029081082</v>
       </c>
       <c r="D11" t="n" s="60">
-        <v>0.9119274465685168</v>
+        <v>0.8839900938583336</v>
       </c>
       <c r="E11" t="n" s="61">
-        <v>0.3589269245984746</v>
+        <v>0.3646407241818892</v>
       </c>
       <c r="F11" t="n" s="62">
-        <v>8.958153155907642</v>
+        <v>6.8869517715758235</v>
       </c>
       <c r="G11" t="n" s="63">
-        <v>0.00960381385238087</v>
+        <v>0.012228128481698207</v>
       </c>
       <c r="H11" t="n" s="64">
-        <v>0.010049048242700125</v>
+        <v>0.010475814179033925</v>
       </c>
       <c r="I11" t="n" s="65">
-        <v>0.3579675351525168</v>
+        <v>0.36034628208143904</v>
       </c>
     </row>
     <row r="12">
@@ -2578,28 +2566,28 @@
         <v>19</v>
       </c>
       <c r="B12" t="n" s="58">
-        <v>0.898693653851463</v>
+        <v>0.8652730113829372</v>
       </c>
       <c r="C12" t="n" s="59">
-        <v>0.9000037104083886</v>
+        <v>0.8676745944430138</v>
       </c>
       <c r="D12" t="n" s="60">
-        <v>0.9127030233569372</v>
+        <v>0.8787555274111241</v>
       </c>
       <c r="E12" t="n" s="61">
-        <v>0.3600094988569427</v>
+        <v>0.3533482048448328</v>
       </c>
       <c r="F12" t="n" s="62">
-        <v>9.000371054606504</v>
+        <v>6.5571277925866465</v>
       </c>
       <c r="G12" t="n" s="63">
-        <v>0.009536719618714311</v>
+        <v>0.012881582897253697</v>
       </c>
       <c r="H12" t="n" s="64">
-        <v>0.010062810103342923</v>
+        <v>0.010382569311871807</v>
       </c>
       <c r="I12" t="n" s="65">
-        <v>0.3579675351525168</v>
+        <v>0.3578102847406783</v>
       </c>
     </row>
     <row r="13">
@@ -2607,28 +2595,28 @@
         <v>20</v>
       </c>
       <c r="B13" t="n" s="58">
-        <v>0.9008177421336698</v>
+        <v>0.8653980885420884</v>
       </c>
       <c r="C13" t="n" s="59">
-        <v>0.9016430382329126</v>
+        <v>0.8675240635502812</v>
       </c>
       <c r="D13" t="n" s="60">
-        <v>0.9132270180560199</v>
+        <v>0.8802705424789814</v>
       </c>
       <c r="E13" t="n" s="61">
-        <v>0.3642480561886575</v>
+        <v>0.35304883631452694</v>
       </c>
       <c r="F13" t="n" s="62">
-        <v>9.167048493913772</v>
+        <v>6.548540714634243</v>
       </c>
       <c r="G13" t="n" s="63">
-        <v>0.009338193051852794</v>
+        <v>0.012840769600836056</v>
       </c>
       <c r="H13" t="n" s="64">
-        <v>0.009615819266038422</v>
+        <v>0.01075585931117868</v>
       </c>
       <c r="I13" t="n" s="65">
-        <v>0.3596582259265272</v>
+        <v>0.3578102847406783</v>
       </c>
     </row>
     <row r="14">
@@ -2636,28 +2624,28 @@
         <v>21</v>
       </c>
       <c r="B14" t="n" s="58">
-        <v>0.8979899046117606</v>
+        <v>0.8640026246467374</v>
       </c>
       <c r="C14" t="n" s="59">
-        <v>0.8992109964544105</v>
+        <v>0.8657105595492027</v>
       </c>
       <c r="D14" t="n" s="60">
-        <v>0.9113879173422678</v>
+        <v>0.8776998921047432</v>
       </c>
       <c r="E14" t="n" s="61">
-        <v>0.35798966787832165</v>
+        <v>0.34947368210517776</v>
       </c>
       <c r="F14" t="n" s="62">
-        <v>8.921717298729652</v>
+        <v>6.4466018820474105</v>
       </c>
       <c r="G14" t="n" s="63">
-        <v>0.009600889734158425</v>
+        <v>0.012971399706645246</v>
       </c>
       <c r="H14" t="n" s="64">
-        <v>0.010255393264183442</v>
+        <v>0.010790295188883234</v>
       </c>
       <c r="I14" t="n" s="65">
-        <v>0.35778035201151903</v>
+        <v>0.3452770404970968</v>
       </c>
     </row>
     <row r="15">
@@ -2665,28 +2653,28 @@
         <v>22</v>
       </c>
       <c r="B15" t="n" s="58">
-        <v>0.9011767101781646</v>
+        <v>0.8796841852482068</v>
       </c>
       <c r="C15" t="n" s="59">
-        <v>0.9017252368590638</v>
+        <v>0.8806842858066861</v>
       </c>
       <c r="D15" t="n" s="60">
-        <v>0.9140116170420389</v>
+        <v>0.8913176618519364</v>
       </c>
       <c r="E15" t="n" s="61">
-        <v>0.36446280270957926</v>
+        <v>0.3808409181856915</v>
       </c>
       <c r="F15" t="n" s="62">
-        <v>9.175552380277905</v>
+        <v>7.381125711403051</v>
       </c>
       <c r="G15" t="n" s="63">
-        <v>0.00928099093614161</v>
+        <v>0.011439907263831449</v>
       </c>
       <c r="H15" t="n" s="64">
-        <v>0.011061961240015272</v>
+        <v>0.009758307112472135</v>
       </c>
       <c r="I15" t="n" s="65">
-        <v>0.3611841010346585</v>
+        <v>0.3712045904340165</v>
       </c>
     </row>
     <row r="16">
@@ -2694,28 +2682,28 @@
         <v>23</v>
       </c>
       <c r="B16" t="n" s="58">
-        <v>0.8999617397759808</v>
+        <v>0.868345926916513</v>
       </c>
       <c r="C16" t="n" s="59">
-        <v>0.9005744500960683</v>
+        <v>0.8689844894651888</v>
       </c>
       <c r="D16" t="n" s="60">
-        <v>0.913787881295763</v>
+        <v>0.8824669987289584</v>
       </c>
       <c r="E16" t="n" s="61">
-        <v>0.36147567846776013</v>
+        <v>0.35597040362985627</v>
       </c>
       <c r="F16" t="n" s="62">
-        <v>9.057776909116752</v>
+        <v>6.632684068611078</v>
       </c>
       <c r="G16" t="n" s="63">
-        <v>0.009391070497574415</v>
+        <v>0.012509300379305782</v>
       </c>
       <c r="H16" t="n" s="64">
-        <v>0.011223433426203945</v>
+        <v>0.012577842024789149</v>
       </c>
       <c r="I16" t="n" s="65">
-        <v>0.3596582259265272</v>
+        <v>0.3586731400582299</v>
       </c>
     </row>
     <row r="17">
@@ -2723,28 +2711,28 @@
         <v>24</v>
       </c>
       <c r="B17" t="n" s="58">
-        <v>0.8994416573300617</v>
+        <v>0.874333222675781</v>
       </c>
       <c r="C17" t="n" s="59">
-        <v>0.9003219316109504</v>
+        <v>0.8756056554983059</v>
       </c>
       <c r="D17" t="n" s="60">
-        <v>0.913802973477527</v>
+        <v>0.8866364031442021</v>
       </c>
       <c r="E17" t="n" s="61">
-        <v>0.360825739914719</v>
+        <v>0.3697131631194693</v>
       </c>
       <c r="F17" t="n" s="62">
-        <v>9.032297135784567</v>
+        <v>7.038950677427156</v>
       </c>
       <c r="G17" t="n" s="63">
-        <v>0.009454587698083201</v>
+        <v>0.011949087485139374</v>
       </c>
       <c r="H17" t="n" s="64">
-        <v>0.01097188916211024</v>
+        <v>0.01210213948011133</v>
       </c>
       <c r="I17" t="n" s="65">
-        <v>0.3579675351525168</v>
+        <v>0.36679236386887537</v>
       </c>
     </row>
     <row r="18">
@@ -2752,28 +2740,28 @@
         <v>25</v>
       </c>
       <c r="B18" t="n" s="58">
-        <v>0.8984713044349527</v>
+        <v>0.8698137003009141</v>
       </c>
       <c r="C18" t="n" s="59">
-        <v>0.8994092820891106</v>
+        <v>0.8699532162257823</v>
       </c>
       <c r="D18" t="n" s="60">
-        <v>0.9131078519226606</v>
+        <v>0.8818787172024117</v>
       </c>
       <c r="E18" t="n" s="61">
-        <v>0.35849310305421783</v>
+        <v>0.3579296370095562</v>
       </c>
       <c r="F18" t="n" s="62">
-        <v>8.941275107369986</v>
+        <v>6.689540417517451</v>
       </c>
       <c r="G18" t="n" s="63">
-        <v>0.009579397984224358</v>
+        <v>0.012367040218368411</v>
       </c>
       <c r="H18" t="n" s="64">
-        <v>0.010766378368693286</v>
+        <v>0.012150562118658293</v>
       </c>
       <c r="I18" t="n" s="65">
-        <v>0.3546799255463484</v>
+        <v>0.3586731400582299</v>
       </c>
     </row>
     <row r="19">
@@ -2781,28 +2769,28 @@
         <v>26</v>
       </c>
       <c r="B19" t="n" s="58">
-        <v>0.9036854594734416</v>
+        <v>0.8679697427049894</v>
       </c>
       <c r="C19" t="n" s="59">
-        <v>0.9047143064166804</v>
+        <v>0.8693373327472745</v>
       </c>
       <c r="D19" t="n" s="60">
-        <v>0.9160349794113383</v>
+        <v>0.8827701474637003</v>
       </c>
       <c r="E19" t="n" s="61">
-        <v>0.3724199326354089</v>
+        <v>0.35668203957505995</v>
       </c>
       <c r="F19" t="n" s="62">
-        <v>9.494754903846937</v>
+        <v>6.653295474719015</v>
       </c>
       <c r="G19" t="n" s="63">
-        <v>0.0090476422692768</v>
+        <v>0.0125737234401837</v>
       </c>
       <c r="H19" t="n" s="64">
-        <v>0.010661529032798578</v>
+        <v>0.012000295343450493</v>
       </c>
       <c r="I19" t="n" s="65">
-        <v>0.36765864126411524</v>
+        <v>0.35358563373974483</v>
       </c>
     </row>
     <row r="20">
@@ -2810,28 +2798,28 @@
         <v>27</v>
       </c>
       <c r="B20" t="n" s="58">
-        <v>0.906566652057253</v>
+        <v>0.8661111389827026</v>
       </c>
       <c r="C20" t="n" s="59">
-        <v>0.9072689509528689</v>
+        <v>0.8676369388389503</v>
       </c>
       <c r="D20" t="n" s="60">
-        <v>0.918952195412789</v>
+        <v>0.8820510972202527</v>
       </c>
       <c r="E20" t="n" s="61">
-        <v>0.37945711115956476</v>
+        <v>0.3532732793484103</v>
       </c>
       <c r="F20" t="n" s="62">
-        <v>9.78387455200409</v>
+        <v>6.554977886037811</v>
       </c>
       <c r="G20" t="n" s="63">
-        <v>0.00877478060461008</v>
+        <v>0.01280633526045893</v>
       </c>
       <c r="H20" t="n" s="64">
-        <v>0.009199659829544932</v>
+        <v>0.012114391679783012</v>
       </c>
       <c r="I20" t="n" s="65">
-        <v>0.37072107666709064</v>
+        <v>0.33764498314405345</v>
       </c>
     </row>
     <row r="21">
@@ -2839,28 +2827,28 @@
         <v>28</v>
       </c>
       <c r="B21" t="n" s="58">
-        <v>0.8992061643674861</v>
+        <v>0.8695100861567558</v>
       </c>
       <c r="C21" t="n" s="59">
-        <v>0.9001453591027555</v>
+        <v>0.8709169809523114</v>
       </c>
       <c r="D21" t="n" s="60">
-        <v>0.9136314688077457</v>
+        <v>0.8847891346293191</v>
       </c>
       <c r="E21" t="n" s="61">
-        <v>0.36037244413192315</v>
+        <v>0.359895957228737</v>
       </c>
       <c r="F21" t="n" s="62">
-        <v>9.01455707030233</v>
+        <v>6.746952367379629</v>
       </c>
       <c r="G21" t="n" s="63">
-        <v>0.009476929373077434</v>
+        <v>0.012420307674069583</v>
       </c>
       <c r="H21" t="n" s="64">
-        <v>0.011389180610738635</v>
+        <v>0.013236250239196687</v>
       </c>
       <c r="I21" t="n" s="65">
-        <v>0.3579675351525168</v>
+        <v>0.3596706099048851</v>
       </c>
     </row>
     <row r="22">
@@ -2868,28 +2856,28 @@
         <v>29</v>
       </c>
       <c r="B22" t="n" s="58">
-        <v>0.8970048227278761</v>
+        <v>0.8727852973080509</v>
       </c>
       <c r="C22" t="n" s="59">
-        <v>0.898114868712062</v>
+        <v>0.8744340892730625</v>
       </c>
       <c r="D22" t="n" s="60">
-        <v>0.911435601772218</v>
+        <v>0.8872323962448224</v>
       </c>
       <c r="E22" t="n" s="61">
-        <v>0.35522803854593016</v>
+        <v>0.36722026799838425</v>
       </c>
       <c r="F22" t="n" s="62">
-        <v>8.814974838417745</v>
+        <v>6.96394494501502</v>
       </c>
       <c r="G22" t="n" s="63">
-        <v>0.009697589137615958</v>
+        <v>0.012125673079208652</v>
       </c>
       <c r="H22" t="n" s="64">
-        <v>0.010001974643882834</v>
+        <v>0.01248161778290508</v>
       </c>
       <c r="I22" t="n" s="65">
-        <v>0.3546799255463484</v>
+        <v>0.3606039210466153</v>
       </c>
     </row>
     <row r="23">
@@ -2897,678 +2885,642 @@
         <v>30</v>
       </c>
       <c r="B23" t="n" s="58">
-        <v>0.8992293882354774</v>
+        <v>0.8697597013005115</v>
       </c>
       <c r="C23" t="n" s="59">
-        <v>0.8996516370083351</v>
+        <v>0.8708906278283769</v>
       </c>
       <c r="D23" t="n" s="60">
-        <v>0.9131595011673465</v>
+        <v>0.8855468124351625</v>
       </c>
       <c r="E23" t="n" s="61">
-        <v>0.3591100508933373</v>
+        <v>0.35984196120886863</v>
       </c>
       <c r="F23" t="n" s="62">
-        <v>8.965284636313022</v>
+        <v>6.7453711003312415</v>
       </c>
       <c r="G23" t="n" s="63">
-        <v>0.00948280936883535</v>
+        <v>0.01239697103463862</v>
       </c>
       <c r="H23" t="n" s="64">
-        <v>0.010716200542037618</v>
+        <v>0.01362720305349683</v>
       </c>
       <c r="I23" t="n" s="65">
-        <v>0.3578102847406783</v>
+        <v>0.3493145083570325</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="s" s="53">
+      <c r="A24" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s" s="69">
         <v>31</v>
       </c>
-      <c r="B24" t="n" s="58">
-        <v>0.9032999331348819</v>
-      </c>
-      <c r="C24" t="n" s="59">
-        <v>0.9043604851589888</v>
-      </c>
-      <c r="D24" t="n" s="60">
-        <v>0.9175820994181328</v>
-      </c>
-      <c r="E24" t="n" s="61">
-        <v>0.37146274067046053</v>
-      </c>
-      <c r="F24" t="n" s="62">
-        <v>9.455929242869699</v>
-      </c>
-      <c r="G24" t="n" s="63">
-        <v>0.009091366733860698</v>
-      </c>
-      <c r="H24" t="n" s="64">
-        <v>0.01122398215470728</v>
-      </c>
-      <c r="I24" t="n" s="65">
-        <v>0.36765864126411524</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="s" s="53">
+    </row>
+    <row r="27">
+      <c r="A27"/>
+      <c r="B27" t="s" s="83">
         <v>32</v>
       </c>
-      <c r="B25" t="n" s="58">
-        <v>0.9003039742932434</v>
-      </c>
-      <c r="C25" t="n" s="59">
-        <v>0.9013414089106956</v>
-      </c>
-      <c r="D25" t="n" s="60">
-        <v>0.915531437639865</v>
-      </c>
-      <c r="E25" t="n" s="61">
-        <v>0.36346186950700693</v>
-      </c>
-      <c r="F25" t="n" s="62">
-        <v>9.135964734128564</v>
-      </c>
-      <c r="G25" t="n" s="63">
-        <v>0.009377735989539036</v>
-      </c>
-      <c r="H25" t="n" s="64">
-        <v>0.01143378930300762</v>
-      </c>
-      <c r="I25" t="n" s="65">
-        <v>0.3596582259265272</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="s" s="53">
+      <c r="C27" t="s" s="83">
         <v>33</v>
       </c>
-      <c r="B26" t="n" s="58">
-        <v>0.9004061344859877</v>
-      </c>
-      <c r="C26" t="n" s="59">
-        <v>0.9011733331225721</v>
-      </c>
-      <c r="D26" t="n" s="60">
-        <v>0.9154650870815563</v>
-      </c>
-      <c r="E26" t="n" s="61">
-        <v>0.36302502899407757</v>
-      </c>
-      <c r="F26" t="n" s="62">
-        <v>9.118726368058873</v>
-      </c>
-      <c r="G26" t="n" s="63">
-        <v>0.00935859454290558</v>
-      </c>
-      <c r="H26" t="n" s="64">
-        <v>0.011912096135768645</v>
-      </c>
-      <c r="I26" t="n" s="65">
-        <v>0.35864320732907073</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="s" s="53">
+      <c r="D27" t="s" s="83">
         <v>34</v>
       </c>
-      <c r="B27" t="n" s="58">
-        <v>0.9025254070887675</v>
-      </c>
-      <c r="C27" t="n" s="59">
-        <v>0.9035830506827044</v>
-      </c>
-      <c r="D27" t="n" s="60">
-        <v>0.9165620922213569</v>
-      </c>
-      <c r="E27" t="n" s="61">
-        <v>0.3693741378130687</v>
-      </c>
-      <c r="F27" t="n" s="62">
-        <v>9.371620416127575</v>
-      </c>
-      <c r="G27" t="n" s="63">
-        <v>0.00916901530185154</v>
-      </c>
-      <c r="H27" t="n" s="64">
-        <v>0.01122194074173234</v>
-      </c>
-      <c r="I27" t="n" s="65">
-        <v>0.3631076939894449</v>
+      <c r="E27" t="s" s="83">
+        <v>35</v>
+      </c>
+      <c r="F27" t="s" s="83">
+        <v>36</v>
+      </c>
+      <c r="G27" t="s" s="83">
+        <v>9</v>
+      </c>
+      <c r="H27" t="s" s="83">
+        <v>10</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" t="s">
-        <v>1</v>
+      <c r="A28" t="s" s="79">
+        <v>18</v>
+      </c>
+      <c r="B28" t="n" s="84">
+        <v>235.0</v>
+      </c>
+      <c r="C28" t="n" s="85">
+        <v>0.627356570728298</v>
+      </c>
+      <c r="D28" t="n" s="86">
+        <v>0.6041386672224274</v>
+      </c>
+      <c r="E28" t="n" s="87">
+        <v>0.5694259736755423</v>
+      </c>
+      <c r="F28" t="n" s="88">
+        <v>0.5307363855642454</v>
+      </c>
+      <c r="G28" t="n" s="89">
+        <v>2.451063829787234</v>
+      </c>
+      <c r="H28" t="n" s="90">
+        <v>1.2611676079033216</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" t="s">
-        <v>1</v>
+      <c r="A29" t="s" s="79">
+        <v>19</v>
+      </c>
+      <c r="B29" t="n" s="84">
+        <v>235.0</v>
+      </c>
+      <c r="C29" t="n" s="85">
+        <v>0.7142178331833954</v>
+      </c>
+      <c r="D29" t="n" s="86">
+        <v>0.6937445451166021</v>
+      </c>
+      <c r="E29" t="n" s="87">
+        <v>0.67817327903563</v>
+      </c>
+      <c r="F29" t="n" s="88">
+        <v>0.6351422832315339</v>
+      </c>
+      <c r="G29" t="n" s="89">
+        <v>2.25531914893617</v>
+      </c>
+      <c r="H29" t="n" s="90">
+        <v>1.2518035724639311</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" t="s" s="69">
-        <v>35</v>
+      <c r="A30" t="s" s="79">
+        <v>20</v>
+      </c>
+      <c r="B30" t="n" s="84">
+        <v>235.0</v>
+      </c>
+      <c r="C30" t="n" s="85">
+        <v>0.7060100449600024</v>
+      </c>
+      <c r="D30" t="n" s="86">
+        <v>0.6961200274311572</v>
+      </c>
+      <c r="E30" t="n" s="87">
+        <v>0.6763208551612899</v>
+      </c>
+      <c r="F30" t="n" s="88">
+        <v>0.635927977786748</v>
+      </c>
+      <c r="G30" t="n" s="89">
+        <v>2.1148936170212767</v>
+      </c>
+      <c r="H30" t="n" s="90">
+        <v>1.105344190391657</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31"/>
-      <c r="B31" t="s" s="83">
-        <v>36</v>
-      </c>
-      <c r="C31" t="s" s="83">
-        <v>37</v>
-      </c>
-      <c r="D31" t="s" s="83">
-        <v>38</v>
-      </c>
-      <c r="E31" t="s" s="83">
-        <v>39</v>
-      </c>
-      <c r="F31" t="s" s="83">
-        <v>40</v>
-      </c>
-      <c r="G31" t="s" s="83">
-        <v>9</v>
-      </c>
-      <c r="H31" t="s" s="83">
-        <v>10</v>
+      <c r="A31" t="s" s="79">
+        <v>21</v>
+      </c>
+      <c r="B31" t="n" s="84">
+        <v>235.0</v>
+      </c>
+      <c r="C31" t="n" s="85">
+        <v>0.7298322500885619</v>
+      </c>
+      <c r="D31" t="n" s="86">
+        <v>0.7244887928035169</v>
+      </c>
+      <c r="E31" t="n" s="87">
+        <v>0.7108814909460115</v>
+      </c>
+      <c r="F31" t="n" s="88">
+        <v>0.6689649267831158</v>
+      </c>
+      <c r="G31" t="n" s="89">
+        <v>1.9148936170212767</v>
+      </c>
+      <c r="H31" t="n" s="90">
+        <v>1.0342383802082746</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="79">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B32" t="n" s="84">
         <v>235.0</v>
       </c>
       <c r="C32" t="n" s="85">
-        <v>0.7020708172028135</v>
+        <v>0.45990538077970317</v>
       </c>
       <c r="D32" t="n" s="86">
-        <v>0.6847657575581862</v>
+        <v>0.47559050516587736</v>
       </c>
       <c r="E32" t="n" s="87">
-        <v>0.6720332835598348</v>
+        <v>0.41106808881935575</v>
       </c>
       <c r="F32" t="n" s="88">
-        <v>0.6397503774327981</v>
+        <v>0.3607419609021267</v>
       </c>
       <c r="G32" t="n" s="89">
-        <v>2.25531914893617</v>
+        <v>3.404255319148936</v>
       </c>
       <c r="H32" t="n" s="90">
-        <v>1.2518035724639311</v>
+        <v>1.0512421319580172</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="79">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B33" t="n" s="84">
         <v>235.0</v>
       </c>
       <c r="C33" t="n" s="85">
-        <v>0.6821890730354535</v>
+        <v>0.6584061198913084</v>
       </c>
       <c r="D33" t="n" s="86">
-        <v>0.6726980599117947</v>
+        <v>0.6729374588383412</v>
       </c>
       <c r="E33" t="n" s="87">
-        <v>0.6567546460601213</v>
+        <v>0.6414071934403309</v>
       </c>
       <c r="F33" t="n" s="88">
-        <v>0.6251573226707913</v>
+        <v>0.5918018308164809</v>
       </c>
       <c r="G33" t="n" s="89">
-        <v>2.1148936170212767</v>
+        <v>2.1021276595744682</v>
       </c>
       <c r="H33" t="n" s="90">
-        <v>1.105344190391657</v>
+        <v>0.9553021989536586</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="79">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B34" t="n" s="84">
         <v>235.0</v>
       </c>
       <c r="C34" t="n" s="85">
-        <v>0.6417692709963116</v>
+        <v>0.5434961958319361</v>
       </c>
       <c r="D34" t="n" s="86">
-        <v>0.6254499123266011</v>
+        <v>0.563888982408964</v>
       </c>
       <c r="E34" t="n" s="87">
-        <v>0.6066577314799968</v>
+        <v>0.515554115934746</v>
       </c>
       <c r="F34" t="n" s="88">
-        <v>0.5697117418615188</v>
+        <v>0.46331748200396217</v>
       </c>
       <c r="G34" t="n" s="89">
-        <v>2.451063829787234</v>
+        <v>2.7914893617021277</v>
       </c>
       <c r="H34" t="n" s="90">
-        <v>1.2611676079033216</v>
+        <v>0.9445818925902719</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="79">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B35" t="n" s="84">
         <v>235.0</v>
       </c>
       <c r="C35" t="n" s="85">
-        <v>0.7023134451405484</v>
+        <v>0.633403080456688</v>
       </c>
       <c r="D35" t="n" s="86">
-        <v>0.6952135680685341</v>
+        <v>0.6573909876083572</v>
       </c>
       <c r="E35" t="n" s="87">
-        <v>0.6836279941023847</v>
+        <v>0.628235805889387</v>
       </c>
       <c r="F35" t="n" s="88">
-        <v>0.6519040987545666</v>
+        <v>0.5693028636466586</v>
       </c>
       <c r="G35" t="n" s="89">
-        <v>1.9148936170212767</v>
+        <v>2.0808510638297872</v>
       </c>
       <c r="H35" t="n" s="90">
-        <v>1.0342383802082746</v>
+        <v>0.8806170859585889</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="79">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B36" t="n" s="84">
         <v>235.0</v>
       </c>
       <c r="C36" t="n" s="85">
-        <v>0.6058944508722198</v>
+        <v>0.668189511715954</v>
       </c>
       <c r="D36" t="n" s="86">
-        <v>0.6230560847763645</v>
+        <v>0.6672906441898349</v>
       </c>
       <c r="E36" t="n" s="87">
-        <v>0.5985811840863522</v>
+        <v>0.6347590210006414</v>
       </c>
       <c r="F36" t="n" s="88">
-        <v>0.5536998922775993</v>
+        <v>0.5889677507278125</v>
       </c>
       <c r="G36" t="n" s="89">
-        <v>2.0808510638297872</v>
+        <v>2.480851063829787</v>
       </c>
       <c r="H36" t="n" s="90">
-        <v>0.8806170859585889</v>
+        <v>1.1372929130311658</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="79">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B37" t="n" s="84">
         <v>235.0</v>
       </c>
       <c r="C37" t="n" s="85">
-        <v>0.6447626908297068</v>
+        <v>0.7042020958207766</v>
       </c>
       <c r="D37" t="n" s="86">
-        <v>0.656354227513926</v>
+        <v>0.6943390771854175</v>
       </c>
       <c r="E37" t="n" s="87">
-        <v>0.632708906694072</v>
+        <v>0.664818101496257</v>
       </c>
       <c r="F37" t="n" s="88">
-        <v>0.5918994552722061</v>
+        <v>0.6221749214572577</v>
       </c>
       <c r="G37" t="n" s="89">
-        <v>2.1021276595744682</v>
+        <v>2.0808510638297872</v>
       </c>
       <c r="H37" t="n" s="90">
-        <v>0.9553021989536586</v>
+        <v>1.2633286478961114</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="79">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B38" t="n" s="84">
         <v>235.0</v>
       </c>
       <c r="C38" t="n" s="85">
-        <v>0.6635641373680683</v>
+        <v>0.6501506100414907</v>
       </c>
       <c r="D38" t="n" s="86">
-        <v>0.6635992380852404</v>
+        <v>0.6417882824721716</v>
       </c>
       <c r="E38" t="n" s="87">
-        <v>0.6394850922389653</v>
+        <v>0.6002657173744591</v>
       </c>
       <c r="F38" t="n" s="88">
-        <v>0.6021467168441755</v>
+        <v>0.5634841914224814</v>
       </c>
       <c r="G38" t="n" s="89">
-        <v>2.480851063829787</v>
+        <v>2.927659574468085</v>
       </c>
       <c r="H38" t="n" s="90">
-        <v>1.1372929130311658</v>
+        <v>1.1907230669121773</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="79">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B39" t="n" s="84">
         <v>235.0</v>
       </c>
       <c r="C39" t="n" s="85">
-        <v>0.6971042013296481</v>
+        <v>0.5803157659723275</v>
       </c>
       <c r="D39" t="n" s="86">
-        <v>0.6896016634442078</v>
+        <v>0.583670047125844</v>
       </c>
       <c r="E39" t="n" s="87">
-        <v>0.6697063533413032</v>
+        <v>0.5333447247040427</v>
       </c>
       <c r="F39" t="n" s="88">
-        <v>0.6333389827055697</v>
+        <v>0.49721418619182295</v>
       </c>
       <c r="G39" t="n" s="89">
-        <v>2.0808510638297872</v>
+        <v>2.234042553191489</v>
       </c>
       <c r="H39" t="n" s="90">
-        <v>1.2633286478961114</v>
+        <v>1.0255864688163034</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="79">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B40" t="n" s="84">
         <v>235.0</v>
       </c>
       <c r="C40" t="n" s="85">
-        <v>0.5204364399205464</v>
+        <v>0.6320686397170168</v>
       </c>
       <c r="D40" t="n" s="86">
-        <v>0.534356175900046</v>
+        <v>0.6422167396320564</v>
       </c>
       <c r="E40" t="n" s="87">
-        <v>0.4982766754020096</v>
+        <v>0.5978027716384463</v>
       </c>
       <c r="F40" t="n" s="88">
-        <v>0.4563507573071412</v>
+        <v>0.5617387712631875</v>
       </c>
       <c r="G40" t="n" s="89">
-        <v>2.7914893617021277</v>
+        <v>2.8851063829787233</v>
       </c>
       <c r="H40" t="n" s="90">
-        <v>0.9445818925902719</v>
+        <v>0.9560823560448546</v>
       </c>
     </row>
     <row r="41">
-      <c r="A41" t="s" s="79">
-        <v>27</v>
-      </c>
-      <c r="B41" t="n" s="84">
-        <v>235.0</v>
-      </c>
-      <c r="C41" t="n" s="85">
-        <v>0.4451346491795375</v>
-      </c>
-      <c r="D41" t="n" s="86">
-        <v>0.45591117127434516</v>
-      </c>
-      <c r="E41" t="n" s="87">
-        <v>0.40658751608631716</v>
-      </c>
-      <c r="F41" t="n" s="88">
-        <v>0.3670310553474463</v>
-      </c>
-      <c r="G41" t="n" s="89">
-        <v>3.404255319148936</v>
-      </c>
-      <c r="H41" t="n" s="90">
-        <v>1.0512421319580172</v>
+      <c r="A41" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="42">
-      <c r="A42" t="s" s="79">
-        <v>28</v>
-      </c>
-      <c r="B42" t="n" s="84">
-        <v>235.0</v>
-      </c>
-      <c r="C42" t="n" s="85">
-        <v>0.6733439417091114</v>
-      </c>
-      <c r="D42" t="n" s="86">
-        <v>0.668652227668519</v>
-      </c>
-      <c r="E42" t="n" s="87">
-        <v>0.6447933187003122</v>
-      </c>
-      <c r="F42" t="n" s="88">
-        <v>0.6101376670839478</v>
-      </c>
-      <c r="G42" t="n" s="89">
-        <v>2.927659574468085</v>
-      </c>
-      <c r="H42" t="n" s="90">
-        <v>1.1907230669121773</v>
+      <c r="A42" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="43">
-      <c r="A43" t="s" s="79">
-        <v>29</v>
-      </c>
-      <c r="B43" t="n" s="84">
-        <v>235.0</v>
-      </c>
-      <c r="C43" t="n" s="85">
-        <v>0.7313492390239515</v>
-      </c>
-      <c r="D43" t="n" s="86">
-        <v>0.7259980685626309</v>
-      </c>
-      <c r="E43" t="n" s="87">
-        <v>0.7147190097628214</v>
-      </c>
-      <c r="F43" t="n" s="88">
-        <v>0.6853534030815782</v>
-      </c>
-      <c r="G43" t="n" s="89">
-        <v>2.7361702127659573</v>
-      </c>
-      <c r="H43" t="n" s="90">
-        <v>1.0245752782584259</v>
+      <c r="A43" t="s" s="94">
+        <v>37</v>
       </c>
     </row>
     <row r="44">
-      <c r="A44" t="s" s="79">
-        <v>30</v>
-      </c>
-      <c r="B44" t="n" s="84">
-        <v>235.0</v>
-      </c>
-      <c r="C44" t="n" s="85">
-        <v>0.6757310205731409</v>
-      </c>
-      <c r="D44" t="n" s="86">
-        <v>0.6827244077475649</v>
-      </c>
-      <c r="E44" t="n" s="87">
-        <v>0.6628839607339426</v>
-      </c>
-      <c r="F44" t="n" s="88">
-        <v>0.6308848468931326</v>
-      </c>
-      <c r="G44" t="n" s="89">
-        <v>2.6595744680851063</v>
-      </c>
-      <c r="H44" t="n" s="90">
-        <v>0.8740463849853847</v>
+      <c r="A44"/>
+      <c r="B44" t="s" s="108">
+        <v>38</v>
+      </c>
+      <c r="C44" t="s" s="108">
+        <v>39</v>
+      </c>
+      <c r="D44" t="s" s="108">
+        <v>40</v>
+      </c>
+      <c r="E44" t="s" s="108">
+        <v>41</v>
+      </c>
+      <c r="F44" t="s" s="108">
+        <v>42</v>
+      </c>
+      <c r="G44" t="s" s="108">
+        <v>43</v>
       </c>
     </row>
     <row r="45">
-      <c r="A45" t="s" s="79">
-        <v>31</v>
-      </c>
-      <c r="B45" t="n" s="84">
-        <v>235.0</v>
-      </c>
-      <c r="C45" t="n" s="85">
-        <v>0.5382366147902737</v>
-      </c>
-      <c r="D45" t="n" s="86">
-        <v>0.5450262090476089</v>
-      </c>
-      <c r="E45" t="n" s="87">
-        <v>0.5016975135869197</v>
-      </c>
-      <c r="F45" t="n" s="88">
-        <v>0.4724909264822683</v>
-      </c>
-      <c r="G45" t="n" s="89">
-        <v>3.774468085106383</v>
-      </c>
-      <c r="H45" t="n" s="90">
-        <v>0.9893596489663037</v>
+      <c r="A45" t="s" s="104">
+        <v>18</v>
+      </c>
+      <c r="B45" t="n" s="109">
+        <v>0.2127659574468085</v>
+      </c>
+      <c r="C45" t="n" s="110">
+        <v>0.451063829787234</v>
+      </c>
+      <c r="D45" t="n" s="111">
+        <v>0.13617021276595745</v>
+      </c>
+      <c r="E45" t="n" s="112">
+        <v>0.07234042553191489</v>
+      </c>
+      <c r="F45" t="n" s="113">
+        <v>0.1276595744680851</v>
+      </c>
+      <c r="G45" t="n" s="114">
+        <v>0.0</v>
       </c>
     </row>
     <row r="46">
-      <c r="A46" t="s" s="79">
-        <v>32</v>
-      </c>
-      <c r="B46" t="n" s="84">
-        <v>235.0</v>
-      </c>
-      <c r="C46" t="n" s="85">
-        <v>0.6358847615820116</v>
-      </c>
-      <c r="D46" t="n" s="86">
-        <v>0.6342137112933393</v>
-      </c>
-      <c r="E46" t="n" s="87">
-        <v>0.6012568671922627</v>
-      </c>
-      <c r="F46" t="n" s="88">
-        <v>0.5751706923919867</v>
-      </c>
-      <c r="G46" t="n" s="89">
-        <v>2.7617021276595746</v>
-      </c>
-      <c r="H46" t="n" s="90">
-        <v>1.0674983119123067</v>
+      <c r="A46" t="s" s="104">
+        <v>19</v>
+      </c>
+      <c r="B46" t="n" s="109">
+        <v>0.3872340425531915</v>
+      </c>
+      <c r="C46" t="n" s="110">
+        <v>0.225531914893617</v>
+      </c>
+      <c r="D46" t="n" s="111">
+        <v>0.17446808510638298</v>
+      </c>
+      <c r="E46" t="n" s="112">
+        <v>0.1702127659574468</v>
+      </c>
+      <c r="F46" t="n" s="113">
+        <v>0.0425531914893617</v>
+      </c>
+      <c r="G46" t="n" s="114">
+        <v>0.0</v>
       </c>
     </row>
     <row r="47">
-      <c r="A47" t="s" s="79">
-        <v>33</v>
-      </c>
-      <c r="B47" t="n" s="84">
-        <v>235.0</v>
-      </c>
-      <c r="C47" t="n" s="85">
-        <v>0.6303472764346109</v>
-      </c>
-      <c r="D47" t="n" s="86">
-        <v>0.6390832702990981</v>
-      </c>
-      <c r="E47" t="n" s="87">
-        <v>0.6056998472278163</v>
-      </c>
-      <c r="F47" t="n" s="88">
-        <v>0.5758813310992762</v>
-      </c>
-      <c r="G47" t="n" s="89">
-        <v>2.8851063829787233</v>
-      </c>
-      <c r="H47" t="n" s="90">
-        <v>0.9560823560448546</v>
+      <c r="A47" t="s" s="104">
+        <v>20</v>
+      </c>
+      <c r="B47" t="n" s="109">
+        <v>0.42127659574468085</v>
+      </c>
+      <c r="C47" t="n" s="110">
+        <v>0.1574468085106383</v>
+      </c>
+      <c r="D47" t="n" s="111">
+        <v>0.3276595744680851</v>
+      </c>
+      <c r="E47" t="n" s="112">
+        <v>0.07234042553191489</v>
+      </c>
+      <c r="F47" t="n" s="113">
+        <v>0.02127659574468085</v>
+      </c>
+      <c r="G47" t="n" s="114">
+        <v>0.0</v>
       </c>
     </row>
     <row r="48">
-      <c r="A48" t="s" s="79">
-        <v>34</v>
-      </c>
-      <c r="B48" t="n" s="84">
-        <v>235.0</v>
-      </c>
-      <c r="C48" t="n" s="85">
-        <v>0.5666168906629324</v>
-      </c>
-      <c r="D48" t="n" s="86">
-        <v>0.5683083327349583</v>
-      </c>
-      <c r="E48" t="n" s="87">
-        <v>0.5296304847708178</v>
-      </c>
-      <c r="F48" t="n" s="88">
-        <v>0.5010385155033402</v>
-      </c>
-      <c r="G48" t="n" s="89">
-        <v>2.234042553191489</v>
-      </c>
-      <c r="H48" t="n" s="90">
-        <v>1.0255864688163034</v>
+      <c r="A48" t="s" s="104">
+        <v>21</v>
+      </c>
+      <c r="B48" t="n" s="109">
+        <v>0.4425531914893617</v>
+      </c>
+      <c r="C48" t="n" s="110">
+        <v>0.32340425531914896</v>
+      </c>
+      <c r="D48" t="n" s="111">
+        <v>0.12340425531914893</v>
+      </c>
+      <c r="E48" t="n" s="112">
+        <v>0.09787234042553192</v>
+      </c>
+      <c r="F48" t="n" s="113">
+        <v>0.01276595744680851</v>
+      </c>
+      <c r="G48" t="n" s="114">
+        <v>0.0</v>
       </c>
     </row>
     <row r="49">
-      <c r="A49" t="s">
-        <v>1</v>
+      <c r="A49" t="s" s="104">
+        <v>22</v>
+      </c>
+      <c r="B49" t="n" s="109">
+        <v>0.06382978723404255</v>
+      </c>
+      <c r="C49" t="n" s="110">
+        <v>0.12340425531914893</v>
+      </c>
+      <c r="D49" t="n" s="111">
+        <v>0.2723404255319149</v>
+      </c>
+      <c r="E49" t="n" s="112">
+        <v>0.425531914893617</v>
+      </c>
+      <c r="F49" t="n" s="113">
+        <v>0.1148936170212766</v>
+      </c>
+      <c r="G49" t="n" s="114">
+        <v>0.0</v>
       </c>
     </row>
     <row r="50">
-      <c r="A50" t="s">
-        <v>1</v>
+      <c r="A50" t="s" s="104">
+        <v>23</v>
+      </c>
+      <c r="B50" t="n" s="109">
+        <v>0.28936170212765955</v>
+      </c>
+      <c r="C50" t="n" s="110">
+        <v>0.4297872340425532</v>
+      </c>
+      <c r="D50" t="n" s="111">
+        <v>0.17872340425531916</v>
+      </c>
+      <c r="E50" t="n" s="112">
+        <v>0.09361702127659574</v>
+      </c>
+      <c r="F50" t="n" s="113">
+        <v>0.00851063829787234</v>
+      </c>
+      <c r="G50" t="n" s="114">
+        <v>0.0</v>
       </c>
     </row>
     <row r="51">
-      <c r="A51" t="s" s="94">
-        <v>41</v>
+      <c r="A51" t="s" s="104">
+        <v>24</v>
+      </c>
+      <c r="B51" t="n" s="109">
+        <v>0.059574468085106386</v>
+      </c>
+      <c r="C51" t="n" s="110">
+        <v>0.3404255319148936</v>
+      </c>
+      <c r="D51" t="n" s="111">
+        <v>0.4</v>
+      </c>
+      <c r="E51" t="n" s="112">
+        <v>0.14893617021276595</v>
+      </c>
+      <c r="F51" t="n" s="113">
+        <v>0.05106382978723404</v>
+      </c>
+      <c r="G51" t="n" s="114">
+        <v>0.0</v>
       </c>
     </row>
     <row r="52">
-      <c r="A52"/>
-      <c r="B52" t="s" s="108">
-        <v>42</v>
-      </c>
-      <c r="C52" t="s" s="108">
-        <v>43</v>
-      </c>
-      <c r="D52" t="s" s="108">
-        <v>44</v>
-      </c>
-      <c r="E52" t="s" s="108">
-        <v>45</v>
-      </c>
-      <c r="F52" t="s" s="108">
-        <v>46</v>
-      </c>
-      <c r="G52" t="s" s="108">
-        <v>47</v>
+      <c r="A52" t="s" s="104">
+        <v>25</v>
+      </c>
+      <c r="B52" t="n" s="109">
+        <v>0.23829787234042554</v>
+      </c>
+      <c r="C52" t="n" s="110">
+        <v>0.5319148936170213</v>
+      </c>
+      <c r="D52" t="n" s="111">
+        <v>0.16170212765957448</v>
+      </c>
+      <c r="E52" t="n" s="112">
+        <v>0.04680851063829787</v>
+      </c>
+      <c r="F52" t="n" s="113">
+        <v>0.02127659574468085</v>
+      </c>
+      <c r="G52" t="n" s="114">
+        <v>0.0</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="104">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="B53" t="n" s="109">
-        <v>0.3872340425531915</v>
+        <v>0.20425531914893616</v>
       </c>
       <c r="C53" t="n" s="110">
-        <v>0.225531914893617</v>
+        <v>0.3829787234042553</v>
       </c>
       <c r="D53" t="n" s="111">
-        <v>0.17446808510638298</v>
+        <v>0.1829787234042553</v>
       </c>
       <c r="E53" t="n" s="112">
-        <v>0.1702127659574468</v>
+        <v>0.18723404255319148</v>
       </c>
       <c r="F53" t="n" s="113">
         <v>0.0425531914893617</v>
@@ -3579,22 +3531,22 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="104">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="B54" t="n" s="109">
-        <v>0.42127659574468085</v>
+        <v>0.451063829787234</v>
       </c>
       <c r="C54" t="n" s="110">
-        <v>0.1574468085106383</v>
+        <v>0.251063829787234</v>
       </c>
       <c r="D54" t="n" s="111">
-        <v>0.3276595744680851</v>
+        <v>0.13617021276595745</v>
       </c>
       <c r="E54" t="n" s="112">
+        <v>0.08936170212765958</v>
+      </c>
+      <c r="F54" t="n" s="113">
         <v>0.07234042553191489</v>
-      </c>
-      <c r="F54" t="n" s="113">
-        <v>0.02127659574468085</v>
       </c>
       <c r="G54" t="n" s="114">
         <v>0.0</v>
@@ -3602,22 +3554,22 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="104">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="B55" t="n" s="109">
-        <v>0.2127659574468085</v>
+        <v>0.16595744680851063</v>
       </c>
       <c r="C55" t="n" s="110">
-        <v>0.451063829787234</v>
+        <v>0.16595744680851063</v>
       </c>
       <c r="D55" t="n" s="111">
-        <v>0.13617021276595745</v>
+        <v>0.32340425531914896</v>
       </c>
       <c r="E55" t="n" s="112">
-        <v>0.07234042553191489</v>
+        <v>0.26382978723404255</v>
       </c>
       <c r="F55" t="n" s="113">
-        <v>0.1276595744680851</v>
+        <v>0.08085106382978724</v>
       </c>
       <c r="G55" t="n" s="114">
         <v>0.0</v>
@@ -3625,22 +3577,22 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="104">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="B56" t="n" s="109">
-        <v>0.4425531914893617</v>
+        <v>0.2936170212765957</v>
       </c>
       <c r="C56" t="n" s="110">
-        <v>0.32340425531914896</v>
+        <v>0.2978723404255319</v>
       </c>
       <c r="D56" t="n" s="111">
-        <v>0.12340425531914893</v>
+        <v>0.31063829787234043</v>
       </c>
       <c r="E56" t="n" s="112">
-        <v>0.09787234042553192</v>
+        <v>0.07659574468085106</v>
       </c>
       <c r="F56" t="n" s="113">
-        <v>0.01276595744680851</v>
+        <v>0.02127659574468085</v>
       </c>
       <c r="G56" t="n" s="114">
         <v>0.0</v>
@@ -3648,300 +3600,24 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="104">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="B57" t="n" s="109">
-        <v>0.23829787234042554</v>
+        <v>0.0851063829787234</v>
       </c>
       <c r="C57" t="n" s="110">
-        <v>0.5319148936170213</v>
+        <v>0.22127659574468084</v>
       </c>
       <c r="D57" t="n" s="111">
-        <v>0.16170212765957448</v>
+        <v>0.4595744680851064</v>
       </c>
       <c r="E57" t="n" s="112">
-        <v>0.04680851063829787</v>
+        <v>0.19148936170212766</v>
       </c>
       <c r="F57" t="n" s="113">
-        <v>0.02127659574468085</v>
+        <v>0.0425531914893617</v>
       </c>
       <c r="G57" t="n" s="114">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="s" s="104">
-        <v>23</v>
-      </c>
-      <c r="B58" t="n" s="109">
-        <v>0.28936170212765955</v>
-      </c>
-      <c r="C58" t="n" s="110">
-        <v>0.4297872340425532</v>
-      </c>
-      <c r="D58" t="n" s="111">
-        <v>0.17872340425531916</v>
-      </c>
-      <c r="E58" t="n" s="112">
-        <v>0.09361702127659574</v>
-      </c>
-      <c r="F58" t="n" s="113">
-        <v>0.00851063829787234</v>
-      </c>
-      <c r="G58" t="n" s="114">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="s" s="104">
-        <v>24</v>
-      </c>
-      <c r="B59" t="n" s="109">
-        <v>0.20425531914893616</v>
-      </c>
-      <c r="C59" t="n" s="110">
-        <v>0.3829787234042553</v>
-      </c>
-      <c r="D59" t="n" s="111">
-        <v>0.1829787234042553</v>
-      </c>
-      <c r="E59" t="n" s="112">
-        <v>0.18723404255319148</v>
-      </c>
-      <c r="F59" t="n" s="113">
-        <v>0.0425531914893617</v>
-      </c>
-      <c r="G59" t="n" s="114">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="s" s="104">
-        <v>25</v>
-      </c>
-      <c r="B60" t="n" s="109">
-        <v>0.451063829787234</v>
-      </c>
-      <c r="C60" t="n" s="110">
-        <v>0.251063829787234</v>
-      </c>
-      <c r="D60" t="n" s="111">
-        <v>0.13617021276595745</v>
-      </c>
-      <c r="E60" t="n" s="112">
-        <v>0.08936170212765958</v>
-      </c>
-      <c r="F60" t="n" s="113">
-        <v>0.07234042553191489</v>
-      </c>
-      <c r="G60" t="n" s="114">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="s" s="104">
-        <v>26</v>
-      </c>
-      <c r="B61" t="n" s="109">
-        <v>0.059574468085106386</v>
-      </c>
-      <c r="C61" t="n" s="110">
-        <v>0.3404255319148936</v>
-      </c>
-      <c r="D61" t="n" s="111">
-        <v>0.4</v>
-      </c>
-      <c r="E61" t="n" s="112">
-        <v>0.14893617021276595</v>
-      </c>
-      <c r="F61" t="n" s="113">
-        <v>0.05106382978723404</v>
-      </c>
-      <c r="G61" t="n" s="114">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="s" s="104">
-        <v>27</v>
-      </c>
-      <c r="B62" t="n" s="109">
-        <v>0.06382978723404255</v>
-      </c>
-      <c r="C62" t="n" s="110">
-        <v>0.12340425531914893</v>
-      </c>
-      <c r="D62" t="n" s="111">
-        <v>0.2723404255319149</v>
-      </c>
-      <c r="E62" t="n" s="112">
-        <v>0.425531914893617</v>
-      </c>
-      <c r="F62" t="n" s="113">
-        <v>0.1148936170212766</v>
-      </c>
-      <c r="G62" t="n" s="114">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="s" s="104">
-        <v>28</v>
-      </c>
-      <c r="B63" t="n" s="109">
-        <v>0.16595744680851063</v>
-      </c>
-      <c r="C63" t="n" s="110">
-        <v>0.16595744680851063</v>
-      </c>
-      <c r="D63" t="n" s="111">
-        <v>0.32340425531914896</v>
-      </c>
-      <c r="E63" t="n" s="112">
-        <v>0.26382978723404255</v>
-      </c>
-      <c r="F63" t="n" s="113">
-        <v>0.08085106382978724</v>
-      </c>
-      <c r="G63" t="n" s="114">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="s" s="104">
-        <v>29</v>
-      </c>
-      <c r="B64" t="n" s="109">
-        <v>0.03404255319148936</v>
-      </c>
-      <c r="C64" t="n" s="110">
-        <v>0.5148936170212766</v>
-      </c>
-      <c r="D64" t="n" s="111">
-        <v>0.20425531914893616</v>
-      </c>
-      <c r="E64" t="n" s="112">
-        <v>0.17446808510638298</v>
-      </c>
-      <c r="F64" t="n" s="113">
-        <v>0.07234042553191489</v>
-      </c>
-      <c r="G64" t="n" s="114">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="s" s="104">
-        <v>30</v>
-      </c>
-      <c r="B65" t="n" s="109">
-        <v>0.06808510638297872</v>
-      </c>
-      <c r="C65" t="n" s="110">
-        <v>0.3617021276595745</v>
-      </c>
-      <c r="D65" t="n" s="111">
-        <v>0.4553191489361702</v>
-      </c>
-      <c r="E65" t="n" s="112">
-        <v>0.07234042553191489</v>
-      </c>
-      <c r="F65" t="n" s="113">
-        <v>0.0425531914893617</v>
-      </c>
-      <c r="G65" t="n" s="114">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" t="s" s="104">
-        <v>31</v>
-      </c>
-      <c r="B66" t="n" s="109">
-        <v>0.00425531914893617</v>
-      </c>
-      <c r="C66" t="n" s="110">
-        <v>0.09787234042553192</v>
-      </c>
-      <c r="D66" t="n" s="111">
-        <v>0.30638297872340425</v>
-      </c>
-      <c r="E66" t="n" s="112">
-        <v>0.3021276595744681</v>
-      </c>
-      <c r="F66" t="n" s="113">
-        <v>0.28936170212765955</v>
-      </c>
-      <c r="G66" t="n" s="114">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="s" s="104">
-        <v>32</v>
-      </c>
-      <c r="B67" t="n" s="109">
-        <v>0.09787234042553192</v>
-      </c>
-      <c r="C67" t="n" s="110">
-        <v>0.37446808510638296</v>
-      </c>
-      <c r="D67" t="n" s="111">
-        <v>0.2425531914893617</v>
-      </c>
-      <c r="E67" t="n" s="112">
-        <v>0.23829787234042554</v>
-      </c>
-      <c r="F67" t="n" s="113">
-        <v>0.04680851063829787</v>
-      </c>
-      <c r="G67" t="n" s="114">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" t="s" s="104">
-        <v>33</v>
-      </c>
-      <c r="B68" t="n" s="109">
-        <v>0.0851063829787234</v>
-      </c>
-      <c r="C68" t="n" s="110">
-        <v>0.22127659574468084</v>
-      </c>
-      <c r="D68" t="n" s="111">
-        <v>0.4595744680851064</v>
-      </c>
-      <c r="E68" t="n" s="112">
-        <v>0.19148936170212766</v>
-      </c>
-      <c r="F68" t="n" s="113">
-        <v>0.0425531914893617</v>
-      </c>
-      <c r="G68" t="n" s="114">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" t="s" s="104">
-        <v>34</v>
-      </c>
-      <c r="B69" t="n" s="109">
-        <v>0.2936170212765957</v>
-      </c>
-      <c r="C69" t="n" s="110">
-        <v>0.2978723404255319</v>
-      </c>
-      <c r="D69" t="n" s="111">
-        <v>0.31063829787234043</v>
-      </c>
-      <c r="E69" t="n" s="112">
-        <v>0.07659574468085106</v>
-      </c>
-      <c r="F69" t="n" s="113">
-        <v>0.02127659574468085</v>
-      </c>
-      <c r="G69" t="n" s="114">
         <v>0.0</v>
       </c>
     </row>
@@ -3972,7 +3648,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="116">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2">
@@ -4027,7 +3703,7 @@
         <v>0.837074547346347</v>
       </c>
       <c r="C6" t="n" s="147">
-        <v>0.8036512222722059</v>
+        <v>0.803651222272206</v>
       </c>
       <c r="D6" t="n" s="148">
         <v>0.562256743848896</v>
@@ -4095,28 +3771,28 @@
         <v>18</v>
       </c>
       <c r="B11" t="n" s="172">
-        <v>0.7621426563371325</v>
+        <v>0.8200881870385562</v>
       </c>
       <c r="C11" t="n" s="173">
-        <v>0.7688260932768389</v>
+        <v>0.8239226113117105</v>
       </c>
       <c r="D11" t="n" s="174">
-        <v>0.7028172150474525</v>
+        <v>0.7575297769603053</v>
       </c>
       <c r="E11" t="n" s="175">
-        <v>0.5257477641142998</v>
+        <v>0.6093404579838612</v>
       </c>
       <c r="F11" t="n" s="176">
-        <v>3.3257477202975836</v>
+        <v>4.679320936377038</v>
       </c>
       <c r="G11" t="n" s="177">
-        <v>0.027057825691400986</v>
+        <v>0.020079446948788722</v>
       </c>
       <c r="H11" t="n" s="178">
-        <v>0.009932302651948954</v>
+        <v>1.8907072053876817E-4</v>
       </c>
       <c r="I11" t="n" s="179">
-        <v>0.5328644375012578</v>
+        <v>0.6118555329964568</v>
       </c>
     </row>
     <row r="12">
@@ -4124,28 +3800,28 @@
         <v>19</v>
       </c>
       <c r="B12" t="n" s="172">
-        <v>0.7738444813755013</v>
+        <v>0.7621426563371325</v>
       </c>
       <c r="C12" t="n" s="173">
-        <v>0.7758662697038343</v>
+        <v>0.7688260932768389</v>
       </c>
       <c r="D12" t="n" s="174">
-        <v>0.712033499909644</v>
+        <v>0.7028172150474525</v>
       </c>
       <c r="E12" t="n" s="175">
-        <v>0.5357202939479911</v>
+        <v>0.5257477641142998</v>
       </c>
       <c r="F12" t="n" s="176">
-        <v>3.461622080168928</v>
+        <v>3.3257477202975836</v>
       </c>
       <c r="G12" t="n" s="177">
-        <v>0.025093930188301902</v>
+        <v>0.027057825691400986</v>
       </c>
       <c r="H12" t="n" s="178">
-        <v>0.00958215105669509</v>
+        <v>0.009932302651948954</v>
       </c>
       <c r="I12" t="n" s="179">
-        <v>0.5899354075505824</v>
+        <v>0.5328644375012578</v>
       </c>
     </row>
     <row r="13">
@@ -4153,28 +3829,28 @@
         <v>20</v>
       </c>
       <c r="B13" t="n" s="172">
-        <v>0.8200881870385562</v>
+        <v>0.7738444813755013</v>
       </c>
       <c r="C13" t="n" s="173">
-        <v>0.8239226113117105</v>
+        <v>0.7758662697038343</v>
       </c>
       <c r="D13" t="n" s="174">
-        <v>0.7575297769603053</v>
+        <v>0.712033499909644</v>
       </c>
       <c r="E13" t="n" s="175">
-        <v>0.6093404579838612</v>
+        <v>0.5357202939479911</v>
       </c>
       <c r="F13" t="n" s="176">
-        <v>4.679320936377038</v>
+        <v>3.461622080168928</v>
       </c>
       <c r="G13" t="n" s="177">
-        <v>0.020079446948788722</v>
+        <v>0.025093930188301902</v>
       </c>
       <c r="H13" t="n" s="178">
-        <v>1.8907072053876817E-4</v>
+        <v>0.009582151056695097</v>
       </c>
       <c r="I13" t="n" s="179">
-        <v>0.6118555329964568</v>
+        <v>0.5899354075505825</v>
       </c>
     </row>
     <row r="14">
@@ -4200,10 +3876,10 @@
         <v>0.022129104234460746</v>
       </c>
       <c r="H14" t="n" s="178">
-        <v>0.0016628634482442374</v>
+        <v>0.0016628634482442387</v>
       </c>
       <c r="I14" t="n" s="179">
-        <v>0.5899354075505824</v>
+        <v>0.5899354075505825</v>
       </c>
     </row>
     <row r="15">
@@ -4218,25 +3894,25 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="183">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="18">
       <c r="A18"/>
       <c r="B18" t="s" s="197">
+        <v>32</v>
+      </c>
+      <c r="C18" t="s" s="197">
+        <v>33</v>
+      </c>
+      <c r="D18" t="s" s="197">
+        <v>34</v>
+      </c>
+      <c r="E18" t="s" s="197">
+        <v>35</v>
+      </c>
+      <c r="F18" t="s" s="197">
         <v>36</v>
-      </c>
-      <c r="C18" t="s" s="197">
-        <v>37</v>
-      </c>
-      <c r="D18" t="s" s="197">
-        <v>38</v>
-      </c>
-      <c r="E18" t="s" s="197">
-        <v>39</v>
-      </c>
-      <c r="F18" t="s" s="197">
-        <v>40</v>
       </c>
       <c r="G18" t="s" s="197">
         <v>9</v>
@@ -4253,22 +3929,22 @@
         <v>235.0</v>
       </c>
       <c r="C19" t="n" s="199">
-        <v>0.8616003574847069</v>
+        <v>0.7931487321365855</v>
       </c>
       <c r="D19" t="n" s="200">
-        <v>0.8529784590237326</v>
+        <v>0.7764814744238827</v>
       </c>
       <c r="E19" t="n" s="201">
-        <v>0.7901075486656816</v>
+        <v>0.6603856968930009</v>
       </c>
       <c r="F19" t="n" s="202">
-        <v>0.7244638784165628</v>
+        <v>0.6048378520183011</v>
       </c>
       <c r="G19" t="n" s="203">
-        <v>2.25531914893617</v>
+        <v>2.451063829787234</v>
       </c>
       <c r="H19" t="n" s="204">
-        <v>1.2518035724639311</v>
+        <v>1.2611676079033216</v>
       </c>
     </row>
     <row r="20">
@@ -4279,22 +3955,22 @@
         <v>235.0</v>
       </c>
       <c r="C20" t="n" s="199">
-        <v>0.8351937857850836</v>
+        <v>0.8616003574847069</v>
       </c>
       <c r="D20" t="n" s="200">
-        <v>0.8438524406386833</v>
+        <v>0.8529784590237326</v>
       </c>
       <c r="E20" t="n" s="201">
-        <v>0.7742669684061646</v>
+        <v>0.7901075486656816</v>
       </c>
       <c r="F20" t="n" s="202">
-        <v>0.7041958231861143</v>
+        <v>0.7244638784165628</v>
       </c>
       <c r="G20" t="n" s="203">
-        <v>2.1148936170212767</v>
+        <v>2.25531914893617</v>
       </c>
       <c r="H20" t="n" s="204">
-        <v>1.105344190391657</v>
+        <v>1.2518035724639311</v>
       </c>
     </row>
     <row r="21">
@@ -4305,22 +3981,22 @@
         <v>235.0</v>
       </c>
       <c r="C21" t="n" s="199">
-        <v>0.7931487321365855</v>
+        <v>0.8351937857850836</v>
       </c>
       <c r="D21" t="n" s="200">
-        <v>0.7764814744238827</v>
+        <v>0.8438524406386833</v>
       </c>
       <c r="E21" t="n" s="201">
-        <v>0.6603856968930009</v>
+        <v>0.7742669684061645</v>
       </c>
       <c r="F21" t="n" s="202">
-        <v>0.6048378520183011</v>
+        <v>0.7041958231861143</v>
       </c>
       <c r="G21" t="n" s="203">
-        <v>2.451063829787234</v>
+        <v>2.1148936170212767</v>
       </c>
       <c r="H21" t="n" s="204">
-        <v>1.2611676079033216</v>
+        <v>1.105344190391657</v>
       </c>
     </row>
     <row r="22">
@@ -4337,7 +4013,7 @@
         <v>0.8049617032578689</v>
       </c>
       <c r="E22" t="n" s="201">
-        <v>0.7141009127623577</v>
+        <v>0.7141009127623575</v>
       </c>
       <c r="F22" t="n" s="202">
         <v>0.6400287741654392</v>
@@ -4361,28 +4037,28 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="208">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="26">
       <c r="A26"/>
       <c r="B26" t="s" s="222">
+        <v>38</v>
+      </c>
+      <c r="C26" t="s" s="222">
+        <v>39</v>
+      </c>
+      <c r="D26" t="s" s="222">
+        <v>40</v>
+      </c>
+      <c r="E26" t="s" s="222">
+        <v>41</v>
+      </c>
+      <c r="F26" t="s" s="222">
         <v>42</v>
       </c>
-      <c r="C26" t="s" s="222">
+      <c r="G26" t="s" s="222">
         <v>43</v>
-      </c>
-      <c r="D26" t="s" s="222">
-        <v>44</v>
-      </c>
-      <c r="E26" t="s" s="222">
-        <v>45</v>
-      </c>
-      <c r="F26" t="s" s="222">
-        <v>46</v>
-      </c>
-      <c r="G26" t="s" s="222">
-        <v>47</v>
       </c>
     </row>
     <row r="27">
@@ -4390,19 +4066,19 @@
         <v>18</v>
       </c>
       <c r="B27" t="n" s="223">
-        <v>0.3872340425531915</v>
+        <v>0.2127659574468085</v>
       </c>
       <c r="C27" t="n" s="224">
-        <v>0.225531914893617</v>
+        <v>0.451063829787234</v>
       </c>
       <c r="D27" t="n" s="225">
-        <v>0.17446808510638298</v>
+        <v>0.13617021276595745</v>
       </c>
       <c r="E27" t="n" s="226">
-        <v>0.1702127659574468</v>
+        <v>0.07234042553191489</v>
       </c>
       <c r="F27" t="n" s="227">
-        <v>0.0425531914893617</v>
+        <v>0.1276595744680851</v>
       </c>
       <c r="G27" t="n" s="228">
         <v>0.0</v>
@@ -4413,19 +4089,19 @@
         <v>19</v>
       </c>
       <c r="B28" t="n" s="223">
-        <v>0.42127659574468085</v>
+        <v>0.3872340425531915</v>
       </c>
       <c r="C28" t="n" s="224">
-        <v>0.1574468085106383</v>
+        <v>0.225531914893617</v>
       </c>
       <c r="D28" t="n" s="225">
-        <v>0.3276595744680851</v>
+        <v>0.17446808510638298</v>
       </c>
       <c r="E28" t="n" s="226">
-        <v>0.07234042553191489</v>
+        <v>0.1702127659574468</v>
       </c>
       <c r="F28" t="n" s="227">
-        <v>0.02127659574468085</v>
+        <v>0.0425531914893617</v>
       </c>
       <c r="G28" t="n" s="228">
         <v>0.0</v>
@@ -4436,19 +4112,19 @@
         <v>20</v>
       </c>
       <c r="B29" t="n" s="223">
-        <v>0.2127659574468085</v>
+        <v>0.42127659574468085</v>
       </c>
       <c r="C29" t="n" s="224">
-        <v>0.451063829787234</v>
+        <v>0.1574468085106383</v>
       </c>
       <c r="D29" t="n" s="225">
-        <v>0.13617021276595745</v>
+        <v>0.3276595744680851</v>
       </c>
       <c r="E29" t="n" s="226">
         <v>0.07234042553191489</v>
       </c>
       <c r="F29" t="n" s="227">
-        <v>0.1276595744680851</v>
+        <v>0.02127659574468085</v>
       </c>
       <c r="G29" t="n" s="228">
         <v>0.0</v>
@@ -4504,7 +4180,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="230">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2">
@@ -4559,7 +4235,7 @@
         <v>0.7890948312080083</v>
       </c>
       <c r="C6" t="n" s="261">
-        <v>0.7813715380102478</v>
+        <v>0.781371538010248</v>
       </c>
       <c r="D6" t="n" s="262">
         <v>0.3840763714546817</v>
@@ -4627,28 +4303,28 @@
         <v>22</v>
       </c>
       <c r="B11" t="n" s="286">
-        <v>0.7225975926313033</v>
+        <v>0.7855114127722239</v>
       </c>
       <c r="C11" t="n" s="287">
-        <v>0.7276951098338225</v>
+        <v>0.793268792386824</v>
       </c>
       <c r="D11" t="n" s="288">
-        <v>0.7119087426983378</v>
+        <v>0.7679062856435932</v>
       </c>
       <c r="E11" t="n" s="289">
-        <v>0.3483095427281456</v>
+        <v>0.43420986959285857</v>
       </c>
       <c r="F11" t="n" s="290">
-        <v>2.672354173991283</v>
+        <v>3.837199044815452</v>
       </c>
       <c r="G11" t="n" s="291">
-        <v>0.02857677668403995</v>
+        <v>0.02178357467967837</v>
       </c>
       <c r="H11" t="n" s="292">
-        <v>0.016666879617043905</v>
+        <v>0.009180352069075144</v>
       </c>
       <c r="I11" t="n" s="293">
-        <v>0.32800703858026437</v>
+        <v>0.4813324874312115</v>
       </c>
     </row>
     <row r="12">
@@ -4685,28 +4361,28 @@
         <v>24</v>
       </c>
       <c r="B13" t="n" s="286">
-        <v>0.7462052245641109</v>
+        <v>0.752312543798178</v>
       </c>
       <c r="C13" t="n" s="287">
-        <v>0.7593896458106189</v>
+        <v>0.7624321595764567</v>
       </c>
       <c r="D13" t="n" s="288">
-        <v>0.7381788661529811</v>
+        <v>0.7392607418740442</v>
       </c>
       <c r="E13" t="n" s="289">
-        <v>0.3869616893152067</v>
+        <v>0.3909364484100012</v>
       </c>
       <c r="F13" t="n" s="290">
-        <v>3.1560971196314944</v>
+        <v>3.20932394812854</v>
       </c>
       <c r="G13" t="n" s="291">
-        <v>0.026413372471383142</v>
+        <v>0.025360791228104765</v>
       </c>
       <c r="H13" t="n" s="292">
-        <v>0.012012145543032935</v>
+        <v>0.01968049578720562</v>
       </c>
       <c r="I13" t="n" s="293">
-        <v>0.388428498795528</v>
+        <v>0.4570491201204128</v>
       </c>
     </row>
     <row r="14">
@@ -4714,28 +4390,28 @@
         <v>25</v>
       </c>
       <c r="B14" t="n" s="286">
-        <v>0.7496096125953305</v>
+        <v>0.7225975926313033</v>
       </c>
       <c r="C14" t="n" s="287">
-        <v>0.7588931398268843</v>
+        <v>0.7276951098338225</v>
       </c>
       <c r="D14" t="n" s="288">
-        <v>0.7440915340392913</v>
+        <v>0.7119087426983378</v>
       </c>
       <c r="E14" t="n" s="289">
-        <v>0.3863177250055994</v>
+        <v>0.3483095427281456</v>
       </c>
       <c r="F14" t="n" s="290">
-        <v>3.147538561457753</v>
+        <v>2.672354173991283</v>
       </c>
       <c r="G14" t="n" s="291">
-        <v>0.026305044359478485</v>
+        <v>0.02857677668403995</v>
       </c>
       <c r="H14" t="n" s="292">
-        <v>0.01659800175432081</v>
+        <v>0.016666879617043905</v>
       </c>
       <c r="I14" t="n" s="293">
-        <v>0.39603503594550876</v>
+        <v>0.32800703858026437</v>
       </c>
     </row>
     <row r="15">
@@ -4743,28 +4419,28 @@
         <v>26</v>
       </c>
       <c r="B15" t="n" s="286">
-        <v>0.752312543798178</v>
+        <v>0.7462052245641109</v>
       </c>
       <c r="C15" t="n" s="287">
-        <v>0.7624321595764567</v>
+        <v>0.7593896458106189</v>
       </c>
       <c r="D15" t="n" s="288">
-        <v>0.7392607418740441</v>
+        <v>0.7381788661529811</v>
       </c>
       <c r="E15" t="n" s="289">
-        <v>0.3909364484100012</v>
+        <v>0.3869616893152067</v>
       </c>
       <c r="F15" t="n" s="290">
-        <v>3.20932394812854</v>
+        <v>3.1560971196314944</v>
       </c>
       <c r="G15" t="n" s="291">
-        <v>0.025360791228104765</v>
+        <v>0.026413372471383142</v>
       </c>
       <c r="H15" t="n" s="292">
-        <v>0.019680495787205623</v>
+        <v>0.01201214554303293</v>
       </c>
       <c r="I15" t="n" s="293">
-        <v>0.4570491201204128</v>
+        <v>0.388428498795528</v>
       </c>
     </row>
     <row r="16">
@@ -4772,28 +4448,28 @@
         <v>27</v>
       </c>
       <c r="B16" t="n" s="286">
-        <v>0.7855114127722239</v>
+        <v>0.7496096125953305</v>
       </c>
       <c r="C16" t="n" s="287">
-        <v>0.793268792386824</v>
+        <v>0.7588931398268843</v>
       </c>
       <c r="D16" t="n" s="288">
-        <v>0.7679062856435932</v>
+        <v>0.7440915340392913</v>
       </c>
       <c r="E16" t="n" s="289">
-        <v>0.43420986959285857</v>
+        <v>0.3863177250055994</v>
       </c>
       <c r="F16" t="n" s="290">
-        <v>3.837199044815452</v>
+        <v>3.147538561457753</v>
       </c>
       <c r="G16" t="n" s="291">
-        <v>0.02178357467967837</v>
+        <v>0.026305044359478485</v>
       </c>
       <c r="H16" t="n" s="292">
-        <v>0.009180352069075148</v>
+        <v>0.016598001754320805</v>
       </c>
       <c r="I16" t="n" s="293">
-        <v>0.4813324874312115</v>
+        <v>0.39603503594550876</v>
       </c>
     </row>
     <row r="17">
@@ -4808,25 +4484,25 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="297">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="20">
       <c r="A20"/>
       <c r="B20" t="s" s="311">
+        <v>32</v>
+      </c>
+      <c r="C20" t="s" s="311">
+        <v>33</v>
+      </c>
+      <c r="D20" t="s" s="311">
+        <v>34</v>
+      </c>
+      <c r="E20" t="s" s="311">
+        <v>35</v>
+      </c>
+      <c r="F20" t="s" s="311">
         <v>36</v>
-      </c>
-      <c r="C20" t="s" s="311">
-        <v>37</v>
-      </c>
-      <c r="D20" t="s" s="311">
-        <v>38</v>
-      </c>
-      <c r="E20" t="s" s="311">
-        <v>39</v>
-      </c>
-      <c r="F20" t="s" s="311">
-        <v>40</v>
       </c>
       <c r="G20" t="s" s="311">
         <v>9</v>
@@ -4843,22 +4519,22 @@
         <v>235.0</v>
       </c>
       <c r="C21" t="n" s="313">
-        <v>0.7625174120025392</v>
+        <v>0.5679779442991202</v>
       </c>
       <c r="D21" t="n" s="314">
-        <v>0.7831052700678237</v>
+        <v>0.5778948684503391</v>
       </c>
       <c r="E21" t="n" s="315">
-        <v>0.7381484294385244</v>
+        <v>0.447523924171252</v>
       </c>
       <c r="F21" t="n" s="316">
-        <v>0.6540393019914602</v>
+        <v>0.36773858007744703</v>
       </c>
       <c r="G21" t="n" s="317">
-        <v>2.0808510638297872</v>
+        <v>3.404255319148936</v>
       </c>
       <c r="H21" t="n" s="318">
-        <v>0.8806170859585889</v>
+        <v>1.0512421319580172</v>
       </c>
     </row>
     <row r="22">
@@ -4895,22 +4571,22 @@
         <v>235.0</v>
       </c>
       <c r="C23" t="n" s="313">
-        <v>0.7079667094784202</v>
+        <v>0.6607317924928501</v>
       </c>
       <c r="D23" t="n" s="314">
-        <v>0.6907677573479856</v>
+        <v>0.6812723114056187</v>
       </c>
       <c r="E23" t="n" s="315">
-        <v>0.612708680435096</v>
+        <v>0.5933346517531867</v>
       </c>
       <c r="F23" t="n" s="316">
-        <v>0.5336154414265322</v>
+        <v>0.508117215075655</v>
       </c>
       <c r="G23" t="n" s="317">
-        <v>2.480851063829787</v>
+        <v>2.7914893617021277</v>
       </c>
       <c r="H23" t="n" s="318">
-        <v>1.1372929130311658</v>
+        <v>0.9445818925902719</v>
       </c>
     </row>
     <row r="24">
@@ -4921,22 +4597,22 @@
         <v>235.0</v>
       </c>
       <c r="C24" t="n" s="313">
-        <v>0.725828211706408</v>
+        <v>0.7625174120025392</v>
       </c>
       <c r="D24" t="n" s="314">
-        <v>0.6923061470075496</v>
+        <v>0.7831052700678237</v>
       </c>
       <c r="E24" t="n" s="315">
-        <v>0.6029414704457698</v>
+        <v>0.7381484294385245</v>
       </c>
       <c r="F24" t="n" s="316">
-        <v>0.5339471206689311</v>
+        <v>0.6540393019914602</v>
       </c>
       <c r="G24" t="n" s="317">
         <v>2.0808510638297872</v>
       </c>
       <c r="H24" t="n" s="318">
-        <v>1.2633286478961114</v>
+        <v>0.8806170859585889</v>
       </c>
     </row>
     <row r="25">
@@ -4947,22 +4623,22 @@
         <v>235.0</v>
       </c>
       <c r="C25" t="n" s="313">
-        <v>0.6607317924928501</v>
+        <v>0.7079667094784202</v>
       </c>
       <c r="D25" t="n" s="314">
-        <v>0.6812723114056187</v>
+        <v>0.6907677573479856</v>
       </c>
       <c r="E25" t="n" s="315">
-        <v>0.5933346517531866</v>
+        <v>0.612708680435096</v>
       </c>
       <c r="F25" t="n" s="316">
-        <v>0.508117215075655</v>
+        <v>0.5336154414265322</v>
       </c>
       <c r="G25" t="n" s="317">
-        <v>2.7914893617021277</v>
+        <v>2.480851063829787</v>
       </c>
       <c r="H25" t="n" s="318">
-        <v>0.9445818925902719</v>
+        <v>1.1372929130311658</v>
       </c>
     </row>
     <row r="26">
@@ -4973,22 +4649,22 @@
         <v>235.0</v>
       </c>
       <c r="C26" t="n" s="313">
-        <v>0.5679779442991202</v>
+        <v>0.725828211706408</v>
       </c>
       <c r="D26" t="n" s="314">
-        <v>0.5778948684503391</v>
+        <v>0.6923061470075496</v>
       </c>
       <c r="E26" t="n" s="315">
-        <v>0.44752392417125175</v>
+        <v>0.6029414704457697</v>
       </c>
       <c r="F26" t="n" s="316">
-        <v>0.36773858007744703</v>
+        <v>0.5339471206689311</v>
       </c>
       <c r="G26" t="n" s="317">
-        <v>3.404255319148936</v>
+        <v>2.0808510638297872</v>
       </c>
       <c r="H26" t="n" s="318">
-        <v>1.0512421319580172</v>
+        <v>1.2633286478961114</v>
       </c>
     </row>
     <row r="27">
@@ -5003,28 +4679,28 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="322">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="30">
       <c r="A30"/>
       <c r="B30" t="s" s="336">
+        <v>38</v>
+      </c>
+      <c r="C30" t="s" s="336">
+        <v>39</v>
+      </c>
+      <c r="D30" t="s" s="336">
+        <v>40</v>
+      </c>
+      <c r="E30" t="s" s="336">
+        <v>41</v>
+      </c>
+      <c r="F30" t="s" s="336">
         <v>42</v>
       </c>
-      <c r="C30" t="s" s="336">
+      <c r="G30" t="s" s="336">
         <v>43</v>
-      </c>
-      <c r="D30" t="s" s="336">
-        <v>44</v>
-      </c>
-      <c r="E30" t="s" s="336">
-        <v>45</v>
-      </c>
-      <c r="F30" t="s" s="336">
-        <v>46</v>
-      </c>
-      <c r="G30" t="s" s="336">
-        <v>47</v>
       </c>
     </row>
     <row r="31">
@@ -5032,19 +4708,19 @@
         <v>22</v>
       </c>
       <c r="B31" t="n" s="337">
-        <v>0.23829787234042554</v>
+        <v>0.06382978723404255</v>
       </c>
       <c r="C31" t="n" s="338">
-        <v>0.5319148936170213</v>
+        <v>0.12340425531914893</v>
       </c>
       <c r="D31" t="n" s="339">
-        <v>0.16170212765957448</v>
+        <v>0.2723404255319149</v>
       </c>
       <c r="E31" t="n" s="340">
-        <v>0.04680851063829787</v>
+        <v>0.425531914893617</v>
       </c>
       <c r="F31" t="n" s="341">
-        <v>0.02127659574468085</v>
+        <v>0.1148936170212766</v>
       </c>
       <c r="G31" t="n" s="342">
         <v>0.0</v>
@@ -5078,19 +4754,19 @@
         <v>24</v>
       </c>
       <c r="B33" t="n" s="337">
-        <v>0.20425531914893616</v>
+        <v>0.059574468085106386</v>
       </c>
       <c r="C33" t="n" s="338">
-        <v>0.3829787234042553</v>
+        <v>0.3404255319148936</v>
       </c>
       <c r="D33" t="n" s="339">
-        <v>0.1829787234042553</v>
+        <v>0.4</v>
       </c>
       <c r="E33" t="n" s="340">
-        <v>0.18723404255319148</v>
+        <v>0.14893617021276595</v>
       </c>
       <c r="F33" t="n" s="341">
-        <v>0.0425531914893617</v>
+        <v>0.05106382978723404</v>
       </c>
       <c r="G33" t="n" s="342">
         <v>0.0</v>
@@ -5101,19 +4777,19 @@
         <v>25</v>
       </c>
       <c r="B34" t="n" s="337">
-        <v>0.451063829787234</v>
+        <v>0.23829787234042554</v>
       </c>
       <c r="C34" t="n" s="338">
-        <v>0.251063829787234</v>
+        <v>0.5319148936170213</v>
       </c>
       <c r="D34" t="n" s="339">
-        <v>0.13617021276595745</v>
+        <v>0.16170212765957448</v>
       </c>
       <c r="E34" t="n" s="340">
-        <v>0.08936170212765958</v>
+        <v>0.04680851063829787</v>
       </c>
       <c r="F34" t="n" s="341">
-        <v>0.07234042553191489</v>
+        <v>0.02127659574468085</v>
       </c>
       <c r="G34" t="n" s="342">
         <v>0.0</v>
@@ -5124,19 +4800,19 @@
         <v>26</v>
       </c>
       <c r="B35" t="n" s="337">
-        <v>0.059574468085106386</v>
+        <v>0.20425531914893616</v>
       </c>
       <c r="C35" t="n" s="338">
-        <v>0.3404255319148936</v>
+        <v>0.3829787234042553</v>
       </c>
       <c r="D35" t="n" s="339">
-        <v>0.4</v>
+        <v>0.1829787234042553</v>
       </c>
       <c r="E35" t="n" s="340">
-        <v>0.14893617021276595</v>
+        <v>0.18723404255319148</v>
       </c>
       <c r="F35" t="n" s="341">
-        <v>0.05106382978723404</v>
+        <v>0.0425531914893617</v>
       </c>
       <c r="G35" t="n" s="342">
         <v>0.0</v>
@@ -5147,19 +4823,19 @@
         <v>27</v>
       </c>
       <c r="B36" t="n" s="337">
-        <v>0.06382978723404255</v>
+        <v>0.451063829787234</v>
       </c>
       <c r="C36" t="n" s="338">
-        <v>0.12340425531914893</v>
+        <v>0.251063829787234</v>
       </c>
       <c r="D36" t="n" s="339">
-        <v>0.2723404255319149</v>
+        <v>0.13617021276595745</v>
       </c>
       <c r="E36" t="n" s="340">
-        <v>0.425531914893617</v>
+        <v>0.08936170212765958</v>
       </c>
       <c r="F36" t="n" s="341">
-        <v>0.1148936170212766</v>
+        <v>0.07234042553191489</v>
       </c>
       <c r="G36" t="n" s="342">
         <v>0.0</v>
@@ -5192,7 +4868,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="344">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2">
@@ -5241,31 +4917,31 @@
     </row>
     <row r="6">
       <c r="A6" t="n" s="373">
-        <v>0.8239070000681604</v>
+        <v>0.6878935301032343</v>
       </c>
       <c r="B6" t="n" s="374">
-        <v>0.8248986257584617</v>
+        <v>0.6902527407819173</v>
       </c>
       <c r="C6" t="n" s="375">
-        <v>0.8105486081466131</v>
+        <v>0.5996116202517515</v>
       </c>
       <c r="D6" t="n" s="376">
-        <v>0.4022702179166115</v>
+        <v>0.42621492874730266</v>
       </c>
       <c r="E6" t="n" s="377">
-        <v>4.710977451385281</v>
+        <v>2.2284385744828614</v>
       </c>
       <c r="F6" t="n" s="378">
-        <v>0.01731151515414833</v>
+        <v>0.03456027524420051</v>
       </c>
       <c r="G6" t="n" s="379">
-        <v>2.8541033434650456</v>
+        <v>2.6822695035460993</v>
       </c>
       <c r="H6" t="n" s="380">
-        <v>0.7128736724907957</v>
+        <v>0.8333290901267979</v>
       </c>
       <c r="I6" t="n" s="381">
-        <v>0.3964578452240522</v>
+        <v>0.4318696130311762</v>
       </c>
     </row>
     <row r="7">
@@ -5315,28 +4991,26 @@
         <v>28</v>
       </c>
       <c r="B11" t="n" s="400">
-        <v>0.783395702920952</v>
+        <v>0.5548871778419417</v>
       </c>
       <c r="C11" t="n" s="401">
-        <v>0.7859233537851184</v>
+        <v>0.555874146049</v>
       </c>
       <c r="D11" t="n" s="402">
-        <v>0.7634600559142658</v>
+        <v>0.3849208464263537</v>
       </c>
       <c r="E11" t="n" s="403">
-        <v>0.3796028397009716</v>
+        <v>0.3849208464263538</v>
       </c>
       <c r="F11" t="n" s="404">
-        <v>3.671224151167986</v>
+        <v>1.2516140213497433</v>
       </c>
       <c r="G11" t="n" s="405">
-        <v>0.021893656485689507</v>
-      </c>
-      <c r="H11" t="n" s="406">
-        <v>0.006196944876743415</v>
-      </c>
+        <v>0.05790450573693584</v>
+      </c>
+      <c r="H11" s="406"/>
       <c r="I11" t="n" s="407">
-        <v>0.3599676396182705</v>
+        <v>0.38492084642635394</v>
       </c>
     </row>
     <row r="12">
@@ -5344,28 +5018,26 @@
         <v>29</v>
       </c>
       <c r="B12" t="n" s="400">
-        <v>0.7892026792615539</v>
+        <v>0.593206951026856</v>
       </c>
       <c r="C12" t="n" s="401">
-        <v>0.790085632216088</v>
+        <v>0.6032247756371281</v>
       </c>
       <c r="D12" t="n" s="402">
-        <v>0.7667165456760276</v>
+        <v>0.4318696130311761</v>
       </c>
       <c r="E12" t="n" s="403">
-        <v>0.3854881381628394</v>
+        <v>0.4318696130311763</v>
       </c>
       <c r="F12" t="n" s="404">
-        <v>3.7638473276370035</v>
+        <v>1.5203186554950996</v>
       </c>
       <c r="G12" t="n" s="405">
-        <v>0.020947341785965072</v>
-      </c>
-      <c r="H12" t="n" s="406">
-        <v>0.005072704133915022</v>
-      </c>
+        <v>0.05154447967457113</v>
+      </c>
+      <c r="H12" s="406"/>
       <c r="I12" t="n" s="407">
-        <v>0.3849208464263539</v>
+        <v>0.4318696130311762</v>
       </c>
     </row>
     <row r="13">
@@ -5373,561 +5045,247 @@
         <v>30</v>
       </c>
       <c r="B13" t="n" s="400">
-        <v>0.7953941753387737</v>
+        <v>0.6270850603530196</v>
       </c>
       <c r="C13" t="n" s="401">
-        <v>0.7943956224754645</v>
+        <v>0.6318746243345779</v>
       </c>
       <c r="D13" t="n" s="402">
-        <v>0.7698822881890368</v>
+        <v>0.4618543267843779</v>
       </c>
       <c r="E13" t="n" s="403">
-        <v>0.39170959017936674</v>
+        <v>0.461854326784378</v>
       </c>
       <c r="F13" t="n" s="404">
-        <v>3.863709674083505</v>
+        <v>1.716465818723861</v>
       </c>
       <c r="G13" t="n" s="405">
-        <v>0.02038127747470588</v>
-      </c>
-      <c r="H13" t="n" s="406">
-        <v>0.004477422116291866</v>
-      </c>
+        <v>0.047972723283501925</v>
+      </c>
+      <c r="H13" s="406"/>
       <c r="I13" t="n" s="407">
-        <v>0.3849208464263539</v>
+        <v>0.461854326784378</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="s" s="395">
+      <c r="A14" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s" s="411">
         <v>31</v>
       </c>
-      <c r="B14" t="n" s="400">
-        <v>0.8136873923743781</v>
-      </c>
-      <c r="C14" t="n" s="401">
-        <v>0.8157122240474797</v>
-      </c>
-      <c r="D14" t="n" s="402">
-        <v>0.7965530996151828</v>
-      </c>
-      <c r="E14" t="n" s="403">
-        <v>0.4245319654134734</v>
-      </c>
-      <c r="F14" t="n" s="404">
-        <v>4.42629588333433</v>
-      </c>
-      <c r="G14" t="n" s="405">
-        <v>0.018597324604414028</v>
-      </c>
-      <c r="H14" t="n" s="406">
-        <v>0.006002839173701519</v>
-      </c>
-      <c r="I14" t="n" s="407">
-        <v>0.44904614149603744</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="s" s="395">
+    </row>
+    <row r="17">
+      <c r="A17"/>
+      <c r="B17" t="s" s="425">
         <v>32</v>
       </c>
-      <c r="B15" t="n" s="400">
-        <v>0.8025828747060039</v>
-      </c>
-      <c r="C15" t="n" s="401">
-        <v>0.8038621150449285</v>
-      </c>
-      <c r="D15" t="n" s="402">
-        <v>0.7830524670324159</v>
-      </c>
-      <c r="E15" t="n" s="403">
-        <v>0.4058496526461235</v>
-      </c>
-      <c r="F15" t="n" s="404">
-        <v>4.098454081061732</v>
-      </c>
-      <c r="G15" t="n" s="405">
-        <v>0.019657059032905207</v>
-      </c>
-      <c r="H15" t="n" s="406">
-        <v>0.005429371181868483</v>
-      </c>
-      <c r="I15" t="n" s="407">
-        <v>0.3964578452240522</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="s" s="395">
+      <c r="C17" t="s" s="425">
         <v>33</v>
       </c>
-      <c r="B16" t="n" s="400">
-        <v>0.8031713347411454</v>
-      </c>
-      <c r="C16" t="n" s="401">
-        <v>0.8040845278070894</v>
-      </c>
-      <c r="D16" t="n" s="402">
-        <v>0.7846282085989146</v>
-      </c>
-      <c r="E16" t="n" s="403">
-        <v>0.40618999977616305</v>
-      </c>
-      <c r="F16" t="n" s="404">
-        <v>4.104242093831861</v>
-      </c>
-      <c r="G16" t="n" s="405">
-        <v>0.019578531891232025</v>
-      </c>
-      <c r="H16" t="n" s="406">
-        <v>0.0077262387929324</v>
-      </c>
-      <c r="I16" t="n" s="407">
-        <v>0.4141482257669869</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="s" s="395">
+      <c r="D17" t="s" s="425">
         <v>34</v>
       </c>
-      <c r="B17" t="n" s="400">
-        <v>0.8126275935748691</v>
-      </c>
-      <c r="C17" t="n" s="401">
-        <v>0.8144698087960316</v>
-      </c>
-      <c r="D17" t="n" s="402">
-        <v>0.792254748316179</v>
-      </c>
-      <c r="E17" t="n" s="403">
-        <v>0.4225193395373431</v>
-      </c>
-      <c r="F17" t="n" s="404">
-        <v>4.389958332445305</v>
-      </c>
-      <c r="G17" t="n" s="405">
-        <v>0.01865516534060227</v>
-      </c>
-      <c r="H17" t="n" s="406">
-        <v>0.005333808062343467</v>
-      </c>
-      <c r="I17" t="n" s="407">
-        <v>0.4318696130311762</v>
+      <c r="E17" t="s" s="425">
+        <v>35</v>
+      </c>
+      <c r="F17" t="s" s="425">
+        <v>36</v>
+      </c>
+      <c r="G17" t="s" s="425">
+        <v>9</v>
+      </c>
+      <c r="H17" t="s" s="425">
+        <v>10</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="s">
+      <c r="A18" t="s" s="421">
+        <v>28</v>
+      </c>
+      <c r="B18" t="n" s="426">
+        <v>235.0</v>
+      </c>
+      <c r="C18" t="n" s="427">
+        <v>0.8309232437977363</v>
+      </c>
+      <c r="D18" t="n" s="428">
+        <v>0.8033136671494575</v>
+      </c>
+      <c r="E18" t="n" s="429">
+        <v>0.6479691343234666</v>
+      </c>
+      <c r="F18" t="n" s="430">
+        <v>0.5374871165732877</v>
+      </c>
+      <c r="G18" t="n" s="431">
+        <v>2.927659574468085</v>
+      </c>
+      <c r="H18" t="n" s="432">
+        <v>1.1907230669121773</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s" s="421">
+        <v>29</v>
+      </c>
+      <c r="B19" t="n" s="426">
+        <v>235.0</v>
+      </c>
+      <c r="C19" t="n" s="427">
+        <v>0.7774211981159483</v>
+      </c>
+      <c r="D19" t="n" s="428">
+        <v>0.7833981002199202</v>
+      </c>
+      <c r="E19" t="n" s="429">
+        <v>0.6038919765280548</v>
+      </c>
+      <c r="F19" t="n" s="430">
+        <v>0.504157142082729</v>
+      </c>
+      <c r="G19" t="n" s="431">
+        <v>2.234042553191489</v>
+      </c>
+      <c r="H19" t="n" s="432">
+        <v>1.0255864688163034</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s" s="421">
+        <v>30</v>
+      </c>
+      <c r="B20" t="n" s="426">
+        <v>235.0</v>
+      </c>
+      <c r="C20" t="n" s="427">
+        <v>0.7460394298551409</v>
+      </c>
+      <c r="D20" t="n" s="428">
+        <v>0.7706786484259815</v>
+      </c>
+      <c r="E20" t="n" s="429">
+        <v>0.5735745644778462</v>
+      </c>
+      <c r="F20" t="n" s="430">
+        <v>0.47924356844719435</v>
+      </c>
+      <c r="G20" t="n" s="431">
+        <v>2.8851063829787233</v>
+      </c>
+      <c r="H20" t="n" s="432">
+        <v>0.9560823560448546</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" t="s">
+    <row r="22">
+      <c r="A22" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" t="s" s="411">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21"/>
-      <c r="B21" t="s" s="425">
-        <v>36</v>
-      </c>
-      <c r="C21" t="s" s="425">
+    <row r="23">
+      <c r="A23" t="s" s="436">
         <v>37</v>
       </c>
-      <c r="D21" t="s" s="425">
+    </row>
+    <row r="24">
+      <c r="A24"/>
+      <c r="B24" t="s" s="450">
         <v>38</v>
       </c>
-      <c r="E21" t="s" s="425">
+      <c r="C24" t="s" s="450">
         <v>39</v>
       </c>
-      <c r="F21" t="s" s="425">
+      <c r="D24" t="s" s="450">
         <v>40</v>
       </c>
-      <c r="G21" t="s" s="425">
-        <v>9</v>
-      </c>
-      <c r="H21" t="s" s="425">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="s" s="421">
+      <c r="E24" t="s" s="450">
+        <v>41</v>
+      </c>
+      <c r="F24" t="s" s="450">
+        <v>42</v>
+      </c>
+      <c r="G24" t="s" s="450">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s" s="446">
         <v>28</v>
       </c>
-      <c r="B22" t="n" s="426">
-        <v>235.0</v>
-      </c>
-      <c r="C22" t="n" s="427">
-        <v>0.7851299117751723</v>
-      </c>
-      <c r="D22" t="n" s="428">
-        <v>0.7678829068646874</v>
-      </c>
-      <c r="E22" t="n" s="429">
-        <v>0.7263431631523484</v>
-      </c>
-      <c r="F22" t="n" s="430">
-        <v>0.6616522432373446</v>
-      </c>
-      <c r="G22" t="n" s="431">
-        <v>2.927659574468085</v>
-      </c>
-      <c r="H22" t="n" s="432">
-        <v>1.1907230669121773</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="s" s="421">
+      <c r="B25" t="n" s="451">
+        <v>0.16595744680851063</v>
+      </c>
+      <c r="C25" t="n" s="452">
+        <v>0.16595744680851063</v>
+      </c>
+      <c r="D25" t="n" s="453">
+        <v>0.32340425531914896</v>
+      </c>
+      <c r="E25" t="n" s="454">
+        <v>0.26382978723404255</v>
+      </c>
+      <c r="F25" t="n" s="455">
+        <v>0.08085106382978724</v>
+      </c>
+      <c r="G25" t="n" s="456">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s" s="446">
         <v>29</v>
       </c>
-      <c r="B23" t="n" s="426">
-        <v>235.0</v>
-      </c>
-      <c r="C23" t="n" s="427">
-        <v>0.747821240342702</v>
-      </c>
-      <c r="D23" t="n" s="428">
-        <v>0.7498235175297963</v>
-      </c>
-      <c r="E23" t="n" s="429">
-        <v>0.7047985716521067</v>
-      </c>
-      <c r="F23" t="n" s="430">
-        <v>0.6327550794110568</v>
-      </c>
-      <c r="G23" t="n" s="431">
-        <v>2.7361702127659573</v>
-      </c>
-      <c r="H23" t="n" s="432">
-        <v>1.0245752782584259</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="s" s="421">
+      <c r="B26" t="n" s="451">
+        <v>0.2936170212765957</v>
+      </c>
+      <c r="C26" t="n" s="452">
+        <v>0.2978723404255319</v>
+      </c>
+      <c r="D26" t="n" s="453">
+        <v>0.31063829787234043</v>
+      </c>
+      <c r="E26" t="n" s="454">
+        <v>0.07659574468085106</v>
+      </c>
+      <c r="F26" t="n" s="455">
+        <v>0.02127659574468085</v>
+      </c>
+      <c r="G26" t="n" s="456">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s" s="446">
         <v>30</v>
       </c>
-      <c r="B24" t="n" s="426">
-        <v>235.0</v>
-      </c>
-      <c r="C24" t="n" s="427">
-        <v>0.7145687054451122</v>
-      </c>
-      <c r="D24" t="n" s="428">
-        <v>0.7307326209639226</v>
-      </c>
-      <c r="E24" t="n" s="429">
-        <v>0.6805841899109495</v>
-      </c>
-      <c r="F24" t="n" s="430">
-        <v>0.6106249781882636</v>
-      </c>
-      <c r="G24" t="n" s="431">
-        <v>2.6595744680851063</v>
-      </c>
-      <c r="H24" t="n" s="432">
-        <v>0.8740463849853847</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="s" s="421">
-        <v>31</v>
-      </c>
-      <c r="B25" t="n" s="426">
-        <v>235.0</v>
-      </c>
-      <c r="C25" t="n" s="427">
-        <v>0.627452510587237</v>
-      </c>
-      <c r="D25" t="n" s="428">
-        <v>0.630015205001214</v>
-      </c>
-      <c r="E25" t="n" s="429">
-        <v>0.5270541923171176</v>
-      </c>
-      <c r="F25" t="n" s="430">
-        <v>0.4827203071576857</v>
-      </c>
-      <c r="G25" t="n" s="431">
-        <v>3.774468085106383</v>
-      </c>
-      <c r="H25" t="n" s="432">
-        <v>0.9893596489663037</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="s" s="421">
-        <v>32</v>
-      </c>
-      <c r="B26" t="n" s="426">
-        <v>235.0</v>
-      </c>
-      <c r="C26" t="n" s="427">
-        <v>0.6937872025600135</v>
-      </c>
-      <c r="D26" t="n" s="428">
-        <v>0.6873429959582603</v>
-      </c>
-      <c r="E26" t="n" s="429">
-        <v>0.6135609710191714</v>
-      </c>
-      <c r="F26" t="n" s="430">
-        <v>0.554495869709045</v>
-      </c>
-      <c r="G26" t="n" s="431">
-        <v>2.7617021276595746</v>
-      </c>
-      <c r="H26" t="n" s="432">
-        <v>1.0674983119123067</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="s" s="421">
-        <v>33</v>
-      </c>
-      <c r="B27" t="n" s="426">
-        <v>235.0</v>
-      </c>
-      <c r="C27" t="n" s="427">
-        <v>0.6766590304967238</v>
-      </c>
-      <c r="D27" t="n" s="428">
-        <v>0.6862986204911159</v>
-      </c>
-      <c r="E27" t="n" s="429">
-        <v>0.6066559997564918</v>
-      </c>
-      <c r="F27" t="n" s="430">
-        <v>0.5501373946533072</v>
-      </c>
-      <c r="G27" t="n" s="431">
-        <v>2.8851063829787233</v>
-      </c>
-      <c r="H27" t="n" s="432">
-        <v>0.9560823560448546</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="s" s="421">
-        <v>34</v>
-      </c>
-      <c r="B28" t="n" s="426">
-        <v>235.0</v>
-      </c>
-      <c r="C28" t="n" s="427">
-        <v>0.639773883909224</v>
-      </c>
-      <c r="D28" t="n" s="428">
-        <v>0.6361910675369905</v>
-      </c>
-      <c r="E28" t="n" s="429">
-        <v>0.5419507642725854</v>
-      </c>
-      <c r="F28" t="n" s="430">
-        <v>0.4919241930394217</v>
-      </c>
-      <c r="G28" t="n" s="431">
-        <v>2.234042553191489</v>
-      </c>
-      <c r="H28" t="n" s="432">
-        <v>1.0255864688163034</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="s" s="436">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32"/>
-      <c r="B32" t="s" s="450">
-        <v>42</v>
-      </c>
-      <c r="C32" t="s" s="450">
-        <v>43</v>
-      </c>
-      <c r="D32" t="s" s="450">
-        <v>44</v>
-      </c>
-      <c r="E32" t="s" s="450">
-        <v>45</v>
-      </c>
-      <c r="F32" t="s" s="450">
-        <v>46</v>
-      </c>
-      <c r="G32" t="s" s="450">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="s" s="446">
-        <v>28</v>
-      </c>
-      <c r="B33" t="n" s="451">
-        <v>0.16595744680851063</v>
-      </c>
-      <c r="C33" t="n" s="452">
-        <v>0.16595744680851063</v>
-      </c>
-      <c r="D33" t="n" s="453">
-        <v>0.32340425531914896</v>
-      </c>
-      <c r="E33" t="n" s="454">
-        <v>0.26382978723404255</v>
-      </c>
-      <c r="F33" t="n" s="455">
-        <v>0.08085106382978724</v>
-      </c>
-      <c r="G33" t="n" s="456">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="s" s="446">
-        <v>29</v>
-      </c>
-      <c r="B34" t="n" s="451">
-        <v>0.03404255319148936</v>
-      </c>
-      <c r="C34" t="n" s="452">
-        <v>0.5148936170212766</v>
-      </c>
-      <c r="D34" t="n" s="453">
-        <v>0.20425531914893616</v>
-      </c>
-      <c r="E34" t="n" s="454">
-        <v>0.17446808510638298</v>
-      </c>
-      <c r="F34" t="n" s="455">
-        <v>0.07234042553191489</v>
-      </c>
-      <c r="G34" t="n" s="456">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="s" s="446">
-        <v>30</v>
-      </c>
-      <c r="B35" t="n" s="451">
-        <v>0.06808510638297872</v>
-      </c>
-      <c r="C35" t="n" s="452">
-        <v>0.3617021276595745</v>
-      </c>
-      <c r="D35" t="n" s="453">
-        <v>0.4553191489361702</v>
-      </c>
-      <c r="E35" t="n" s="454">
-        <v>0.07234042553191489</v>
-      </c>
-      <c r="F35" t="n" s="455">
+      <c r="B27" t="n" s="451">
+        <v>0.0851063829787234</v>
+      </c>
+      <c r="C27" t="n" s="452">
+        <v>0.22127659574468084</v>
+      </c>
+      <c r="D27" t="n" s="453">
+        <v>0.4595744680851064</v>
+      </c>
+      <c r="E27" t="n" s="454">
+        <v>0.19148936170212766</v>
+      </c>
+      <c r="F27" t="n" s="455">
         <v>0.0425531914893617</v>
       </c>
-      <c r="G35" t="n" s="456">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="s" s="446">
-        <v>31</v>
-      </c>
-      <c r="B36" t="n" s="451">
-        <v>0.00425531914893617</v>
-      </c>
-      <c r="C36" t="n" s="452">
-        <v>0.09787234042553192</v>
-      </c>
-      <c r="D36" t="n" s="453">
-        <v>0.30638297872340425</v>
-      </c>
-      <c r="E36" t="n" s="454">
-        <v>0.3021276595744681</v>
-      </c>
-      <c r="F36" t="n" s="455">
-        <v>0.28936170212765955</v>
-      </c>
-      <c r="G36" t="n" s="456">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="s" s="446">
-        <v>32</v>
-      </c>
-      <c r="B37" t="n" s="451">
-        <v>0.09787234042553192</v>
-      </c>
-      <c r="C37" t="n" s="452">
-        <v>0.37446808510638296</v>
-      </c>
-      <c r="D37" t="n" s="453">
-        <v>0.2425531914893617</v>
-      </c>
-      <c r="E37" t="n" s="454">
-        <v>0.23829787234042554</v>
-      </c>
-      <c r="F37" t="n" s="455">
-        <v>0.04680851063829787</v>
-      </c>
-      <c r="G37" t="n" s="456">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="s" s="446">
-        <v>33</v>
-      </c>
-      <c r="B38" t="n" s="451">
-        <v>0.0851063829787234</v>
-      </c>
-      <c r="C38" t="n" s="452">
-        <v>0.22127659574468084</v>
-      </c>
-      <c r="D38" t="n" s="453">
-        <v>0.4595744680851064</v>
-      </c>
-      <c r="E38" t="n" s="454">
-        <v>0.19148936170212766</v>
-      </c>
-      <c r="F38" t="n" s="455">
-        <v>0.0425531914893617</v>
-      </c>
-      <c r="G38" t="n" s="456">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="s" s="446">
-        <v>34</v>
-      </c>
-      <c r="B39" t="n" s="451">
-        <v>0.2936170212765957</v>
-      </c>
-      <c r="C39" t="n" s="452">
-        <v>0.2978723404255319</v>
-      </c>
-      <c r="D39" t="n" s="453">
-        <v>0.31063829787234043</v>
-      </c>
-      <c r="E39" t="n" s="454">
-        <v>0.07659574468085106</v>
-      </c>
-      <c r="F39" t="n" s="455">
-        <v>0.02127659574468085</v>
-      </c>
-      <c r="G39" t="n" s="456">
+      <c r="G27" t="n" s="456">
         <v>0.0</v>
       </c>
     </row>
